--- a/state_results/Rivers/MangateraatdsDannevirkeSTP_7cc8991f11.xlsx
+++ b/state_results/Rivers/MangateraatdsDannevirkeSTP_7cc8991f11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U181"/>
+  <dimension ref="A1:U202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2765,7 +2765,7 @@
         <v>0.24755</v>
       </c>
       <c r="G29" t="n">
-        <v>0.430959339803896</v>
+        <v>0.430946105452553</v>
       </c>
       <c r="H29" t="n">
         <v>2.19739089327269</v>
@@ -2846,7 +2846,7 @@
         <v>0.24755</v>
       </c>
       <c r="G30" t="n">
-        <v>0.430959339803896</v>
+        <v>0.430946105452553</v>
       </c>
       <c r="H30" t="n">
         <v>2.19739089327269</v>
@@ -4292,7 +4292,7 @@
         <v>0.24838</v>
       </c>
       <c r="G48" t="n">
-        <v>0.529108560261304</v>
+        <v>0.529085580060209</v>
       </c>
       <c r="H48" t="n">
         <v>2.454618514363</v>
@@ -4373,7 +4373,7 @@
         <v>0.24838</v>
       </c>
       <c r="G49" t="n">
-        <v>0.529108560261304</v>
+        <v>0.529085580060209</v>
       </c>
       <c r="H49" t="n">
         <v>2.454618514363</v>
@@ -5819,7 +5819,7 @@
         <v>0.29433</v>
       </c>
       <c r="G67" t="n">
-        <v>0.627074589536823</v>
+        <v>0.627051609335728</v>
       </c>
       <c r="H67" t="n">
         <v>2.86478498890758</v>
@@ -5900,7 +5900,7 @@
         <v>0.29433</v>
       </c>
       <c r="G68" t="n">
-        <v>0.627074589536823</v>
+        <v>0.627051609335728</v>
       </c>
       <c r="H68" t="n">
         <v>2.86478498890758</v>
@@ -7423,7 +7423,7 @@
         <v>0.2235</v>
       </c>
       <c r="G87" t="n">
-        <v>0.551650105034143</v>
+        <v>0.551627514327982</v>
       </c>
       <c r="H87" t="n">
         <v>2.86478498890758</v>
@@ -7504,7 +7504,7 @@
         <v>0.2235</v>
       </c>
       <c r="G88" t="n">
-        <v>0.551650105034143</v>
+        <v>0.551627514327982</v>
       </c>
       <c r="H88" t="n">
         <v>2.86478498890758</v>
@@ -8444,7 +8444,7 @@
         <v>1.32</v>
       </c>
       <c r="G100" t="n">
-        <v>1.27618122824337</v>
+        <v>1.27598993732659</v>
       </c>
       <c r="H100" t="n">
         <v>2.93</v>
@@ -8687,7 +8687,7 @@
         <v>658</v>
       </c>
       <c r="G103" t="n">
-        <v>1255.39852247959</v>
+        <v>1255.41881564917</v>
       </c>
       <c r="H103" t="n">
         <v>9700</v>
@@ -8772,7 +8772,7 @@
         <v>658</v>
       </c>
       <c r="G104" t="n">
-        <v>1255.39852247959</v>
+        <v>1255.41881564917</v>
       </c>
       <c r="H104" t="n">
         <v>9700</v>
@@ -8857,7 +8857,7 @@
         <v>658</v>
       </c>
       <c r="G105" t="n">
-        <v>1255.39852247959</v>
+        <v>1255.41881564917</v>
       </c>
       <c r="H105" t="n">
         <v>9700</v>
@@ -8942,7 +8942,7 @@
         <v>658</v>
       </c>
       <c r="G106" t="n">
-        <v>1255.39852247959</v>
+        <v>1255.41881564917</v>
       </c>
       <c r="H106" t="n">
         <v>9700</v>
@@ -9104,7 +9104,7 @@
         <v>0.21339</v>
       </c>
       <c r="G108" t="n">
-        <v>0.562194983215588</v>
+        <v>0.562172003014493</v>
       </c>
       <c r="H108" t="n">
         <v>2.86478498890758</v>
@@ -9185,7 +9185,7 @@
         <v>0.21339</v>
       </c>
       <c r="G109" t="n">
-        <v>0.562194983215588</v>
+        <v>0.562172003014493</v>
       </c>
       <c r="H109" t="n">
         <v>2.86478498890758</v>
@@ -10125,7 +10125,7 @@
         <v>1.32</v>
       </c>
       <c r="G121" t="n">
-        <v>1.24247792471457</v>
+        <v>1.24227219674746</v>
       </c>
       <c r="H121" t="n">
         <v>2.93</v>
@@ -10368,7 +10368,7 @@
         <v>710</v>
       </c>
       <c r="G124" t="n">
-        <v>1367.62561608094</v>
+        <v>1367.64625320254</v>
       </c>
       <c r="H124" t="n">
         <v>9700</v>
@@ -10453,7 +10453,7 @@
         <v>710</v>
       </c>
       <c r="G125" t="n">
-        <v>1367.62561608094</v>
+        <v>1367.64625320254</v>
       </c>
       <c r="H125" t="n">
         <v>9700</v>
@@ -10538,7 +10538,7 @@
         <v>710</v>
       </c>
       <c r="G126" t="n">
-        <v>1367.62561608094</v>
+        <v>1367.64625320254</v>
       </c>
       <c r="H126" t="n">
         <v>9700</v>
@@ -10623,7 +10623,7 @@
         <v>710</v>
       </c>
       <c r="G127" t="n">
-        <v>1367.62561608094</v>
+        <v>1367.64625320254</v>
       </c>
       <c r="H127" t="n">
         <v>9700</v>
@@ -10785,7 +10785,7 @@
         <v>0.18246</v>
       </c>
       <c r="G129" t="n">
-        <v>0.5192725681984</v>
+        <v>0.519259404547465</v>
       </c>
       <c r="H129" t="n">
         <v>2.86478498890758</v>
@@ -10866,7 +10866,7 @@
         <v>0.18246</v>
       </c>
       <c r="G130" t="n">
-        <v>0.5192725681984</v>
+        <v>0.519259404547465</v>
       </c>
       <c r="H130" t="n">
         <v>2.86478498890758</v>
@@ -11806,7 +11806,7 @@
         <v>1.094</v>
       </c>
       <c r="G142" t="n">
-        <v>1.08452891325809</v>
+        <v>1.0842918788612</v>
       </c>
       <c r="H142" t="n">
         <v>2.61</v>
@@ -12049,7 +12049,7 @@
         <v>610</v>
       </c>
       <c r="G145" t="n">
-        <v>1310.58965472165</v>
+        <v>1310.65178183989</v>
       </c>
       <c r="H145" t="n">
         <v>9700</v>
@@ -12134,7 +12134,7 @@
         <v>610</v>
       </c>
       <c r="G146" t="n">
-        <v>1310.58965472165</v>
+        <v>1310.65178183989</v>
       </c>
       <c r="H146" t="n">
         <v>9700</v>
@@ -12219,7 +12219,7 @@
         <v>610</v>
       </c>
       <c r="G147" t="n">
-        <v>1310.58965472165</v>
+        <v>1310.65178183989</v>
       </c>
       <c r="H147" t="n">
         <v>9700</v>
@@ -12304,7 +12304,7 @@
         <v>610</v>
       </c>
       <c r="G148" t="n">
-        <v>1310.58965472165</v>
+        <v>1310.65178183989</v>
       </c>
       <c r="H148" t="n">
         <v>9700</v>
@@ -13487,7 +13487,7 @@
         <v>0.8</v>
       </c>
       <c r="G163" t="n">
-        <v>0.994854615637749</v>
+        <v>0.994575036605524</v>
       </c>
       <c r="H163" t="n">
         <v>2.61</v>
@@ -13730,13 +13730,13 @@
         <v>820</v>
       </c>
       <c r="G166" t="n">
-        <v>1634.02684376069</v>
+        <v>1588.80569704396</v>
       </c>
       <c r="H166" t="n">
-        <v>10585.7941533029</v>
+        <v>9700</v>
       </c>
       <c r="I166" t="n">
-        <v>8890</v>
+        <v>7907.74455</v>
       </c>
       <c r="J166" t="n">
         <v>64.406779661017</v>
@@ -13815,13 +13815,13 @@
         <v>820</v>
       </c>
       <c r="G167" t="n">
-        <v>1634.02684376069</v>
+        <v>1588.80569704396</v>
       </c>
       <c r="H167" t="n">
-        <v>10585.7941533029</v>
+        <v>9700</v>
       </c>
       <c r="I167" t="n">
-        <v>8890</v>
+        <v>7907.74455</v>
       </c>
       <c r="J167" t="n">
         <v>64.406779661017</v>
@@ -13900,13 +13900,13 @@
         <v>820</v>
       </c>
       <c r="G168" t="n">
-        <v>1634.02684376069</v>
+        <v>1588.80569704396</v>
       </c>
       <c r="H168" t="n">
-        <v>10585.7941533029</v>
+        <v>9700</v>
       </c>
       <c r="I168" t="n">
-        <v>8890</v>
+        <v>7907.74455</v>
       </c>
       <c r="J168" t="n">
         <v>64.406779661017</v>
@@ -13985,13 +13985,13 @@
         <v>820</v>
       </c>
       <c r="G169" t="n">
-        <v>1634.02684376069</v>
+        <v>1588.80569704396</v>
       </c>
       <c r="H169" t="n">
-        <v>10585.7941533029</v>
+        <v>9700</v>
       </c>
       <c r="I169" t="n">
-        <v>8890</v>
+        <v>7907.74455</v>
       </c>
       <c r="J169" t="n">
         <v>64.406779661017</v>
@@ -14980,6 +14980,1687 @@
         </is>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Mangatera at d/s Dannevirke STP</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0.52915</v>
+      </c>
+      <c r="N182" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="O182" t="n">
+        <v>1863908.8</v>
+      </c>
+      <c r="P182" t="n">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T182" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Mangatera at d/s Dannevirke STP</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>6</v>
+      </c>
+      <c r="G183" t="n">
+        <v>26.572436063338</v>
+      </c>
+      <c r="H183" t="n">
+        <v>220</v>
+      </c>
+      <c r="I183" t="n">
+        <v>116.5</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="M183" t="n">
+        <v>45.51</v>
+      </c>
+      <c r="N183" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="O183" t="n">
+        <v>1863908.8</v>
+      </c>
+      <c r="P183" t="n">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T183" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Mangatera at d/s Dannevirke STP</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 4)</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.904950825862982</v>
+      </c>
+      <c r="H184" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I184" t="n">
+        <v>2.209</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M184" t="n">
+        <v>1.9518</v>
+      </c>
+      <c r="N184" t="n">
+        <v>2.1982</v>
+      </c>
+      <c r="O184" t="n">
+        <v>1863908.8</v>
+      </c>
+      <c r="P184" t="n">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T184" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Mangatera at d/s Dannevirke STP</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.40128813559322</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1.2575</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0.78621</v>
+      </c>
+      <c r="N185" t="n">
+        <v>1.177</v>
+      </c>
+      <c r="O185" t="n">
+        <v>1863908.8</v>
+      </c>
+      <c r="P185" t="n">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T185" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Mangatera at d/s Dannevirke STP</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.40128813559322</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1.2575</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0.78621</v>
+      </c>
+      <c r="N186" t="n">
+        <v>1.177</v>
+      </c>
+      <c r="O186" t="n">
+        <v>1863908.8</v>
+      </c>
+      <c r="P186" t="n">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T186" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Mangatera at d/s Dannevirke STP</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>600</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1407.60230721345</v>
+      </c>
+      <c r="H187" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I187" t="n">
+        <v>6684.55</v>
+      </c>
+      <c r="J187" t="n">
+        <v>57.6271186440678</v>
+      </c>
+      <c r="K187" t="n">
+        <v>88.135593220339</v>
+      </c>
+      <c r="L187" t="n">
+        <v>951</v>
+      </c>
+      <c r="M187" t="n">
+        <v>1647.66</v>
+      </c>
+      <c r="N187" t="n">
+        <v>4800</v>
+      </c>
+      <c r="O187" t="n">
+        <v>1863908.8</v>
+      </c>
+      <c r="P187" t="n">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T187" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Mangatera at d/s Dannevirke STP</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>600</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1407.60230721345</v>
+      </c>
+      <c r="H188" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I188" t="n">
+        <v>6684.55</v>
+      </c>
+      <c r="J188" t="n">
+        <v>57.6271186440678</v>
+      </c>
+      <c r="K188" t="n">
+        <v>88.135593220339</v>
+      </c>
+      <c r="L188" t="n">
+        <v>951</v>
+      </c>
+      <c r="M188" t="n">
+        <v>1647.66</v>
+      </c>
+      <c r="N188" t="n">
+        <v>4800</v>
+      </c>
+      <c r="O188" t="n">
+        <v>1863908.8</v>
+      </c>
+      <c r="P188" t="n">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T188" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Mangatera at d/s Dannevirke STP</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>600</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1407.60230721345</v>
+      </c>
+      <c r="H189" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I189" t="n">
+        <v>6684.55</v>
+      </c>
+      <c r="J189" t="n">
+        <v>57.6271186440678</v>
+      </c>
+      <c r="K189" t="n">
+        <v>88.135593220339</v>
+      </c>
+      <c r="L189" t="n">
+        <v>951</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1647.66</v>
+      </c>
+      <c r="N189" t="n">
+        <v>4800</v>
+      </c>
+      <c r="O189" t="n">
+        <v>1863908.8</v>
+      </c>
+      <c r="P189" t="n">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Mangatera at d/s Dannevirke STP</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>600</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1407.60230721345</v>
+      </c>
+      <c r="H190" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I190" t="n">
+        <v>6684.55</v>
+      </c>
+      <c r="J190" t="n">
+        <v>57.6271186440678</v>
+      </c>
+      <c r="K190" t="n">
+        <v>88.135593220339</v>
+      </c>
+      <c r="L190" t="n">
+        <v>951</v>
+      </c>
+      <c r="M190" t="n">
+        <v>1647.66</v>
+      </c>
+      <c r="N190" t="n">
+        <v>4800</v>
+      </c>
+      <c r="O190" t="n">
+        <v>1863908.8</v>
+      </c>
+      <c r="P190" t="n">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Mangatera at d/s Dannevirke STP</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>103</v>
+      </c>
+      <c r="G191" t="n">
+        <v>106.658</v>
+      </c>
+      <c r="H191" t="n">
+        <v>115.29</v>
+      </c>
+      <c r="I191" t="n">
+        <v>115.29</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>103</v>
+      </c>
+      <c r="M191" t="n">
+        <v>114.4885</v>
+      </c>
+      <c r="N191" t="n">
+        <v>115.29</v>
+      </c>
+      <c r="O191" t="n">
+        <v>1863908.8</v>
+      </c>
+      <c r="P191" t="n">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Mangatera at d/s Dannevirke STP</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>0.10152</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.242810168952111</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1.48479713030671</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1.28095</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>0.06850000000000001</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0.34614</v>
+      </c>
+      <c r="N192" t="n">
+        <v>0.86492</v>
+      </c>
+      <c r="O192" t="n">
+        <v>1863908.8</v>
+      </c>
+      <c r="P192" t="n">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Mangatera at d/s Dannevirke STP</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>0.10152</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.242810168952111</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1.48479713030671</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1.28095</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>0.06850000000000001</v>
+      </c>
+      <c r="M193" t="n">
+        <v>0.34614</v>
+      </c>
+      <c r="N193" t="n">
+        <v>0.86492</v>
+      </c>
+      <c r="O193" t="n">
+        <v>1863908.8</v>
+      </c>
+      <c r="P193" t="n">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T193" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Mangatera at d/s Dannevirke STP</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>0.839</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.836406779661017</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1.501</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="M194" t="n">
+        <v>1.3294</v>
+      </c>
+      <c r="N194" t="n">
+        <v>1.4856</v>
+      </c>
+      <c r="O194" t="n">
+        <v>1863908.8</v>
+      </c>
+      <c r="P194" t="n">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T194" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Mangatera at d/s Dannevirke STP</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>0.839</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.836406779661017</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1.501</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="M195" t="n">
+        <v>1.3294</v>
+      </c>
+      <c r="N195" t="n">
+        <v>1.4856</v>
+      </c>
+      <c r="O195" t="n">
+        <v>1863908.8</v>
+      </c>
+      <c r="P195" t="n">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Mangatera at d/s Dannevirke STP</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="G196" t="n">
+        <v>5.9702</v>
+      </c>
+      <c r="H196" t="n">
+        <v>7.015</v>
+      </c>
+      <c r="I196" t="n">
+        <v>7.015</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="M196" t="n">
+        <v>6.68775</v>
+      </c>
+      <c r="N196" t="n">
+        <v>7.015</v>
+      </c>
+      <c r="O196" t="n">
+        <v>1863908.8</v>
+      </c>
+      <c r="P196" t="n">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T196" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Mangatera at d/s Dannevirke STP</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>1.233</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1.295</v>
+      </c>
+      <c r="H197" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="I197" t="n">
+        <v>2.7705</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="M197" t="n">
+        <v>1.93037</v>
+      </c>
+      <c r="N197" t="n">
+        <v>2.45112</v>
+      </c>
+      <c r="O197" t="n">
+        <v>1863908.8</v>
+      </c>
+      <c r="P197" t="n">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T197" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Mangatera at d/s Dannevirke STP</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>1.233</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1.295</v>
+      </c>
+      <c r="H198" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="I198" t="n">
+        <v>2.7705</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="M198" t="n">
+        <v>1.93037</v>
+      </c>
+      <c r="N198" t="n">
+        <v>2.45112</v>
+      </c>
+      <c r="O198" t="n">
+        <v>1863908.8</v>
+      </c>
+      <c r="P198" t="n">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T198" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Mangatera at d/s Dannevirke STP</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1.61525423728814</v>
+      </c>
+      <c r="H199" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="I199" t="n">
+        <v>3.117</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1.055</v>
+      </c>
+      <c r="M199" t="n">
+        <v>2.2652</v>
+      </c>
+      <c r="N199" t="n">
+        <v>2.569</v>
+      </c>
+      <c r="O199" t="n">
+        <v>1863908.8</v>
+      </c>
+      <c r="P199" t="n">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Mangatera at d/s Dannevirke STP</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G200" t="n">
+        <v>1.61525423728814</v>
+      </c>
+      <c r="H200" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="I200" t="n">
+        <v>3.117</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1.055</v>
+      </c>
+      <c r="M200" t="n">
+        <v>2.2652</v>
+      </c>
+      <c r="N200" t="n">
+        <v>2.569</v>
+      </c>
+      <c r="O200" t="n">
+        <v>1863908.8</v>
+      </c>
+      <c r="P200" t="n">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Mangatera at d/s Dannevirke STP</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.480440677966102</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1.321</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>0.4645</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0.86087</v>
+      </c>
+      <c r="N201" t="n">
+        <v>1.3056</v>
+      </c>
+      <c r="O201" t="n">
+        <v>1863908.8</v>
+      </c>
+      <c r="P201" t="n">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Mangatera at d/s Dannevirke STP</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.480440677966102</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="I202" t="n">
+        <v>1.321</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>0.4645</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0.86087</v>
+      </c>
+      <c r="N202" t="n">
+        <v>1.3056</v>
+      </c>
+      <c r="O202" t="n">
+        <v>1863908.8</v>
+      </c>
+      <c r="P202" t="n">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MangateraatdsDannevirkeSTP_7cc8991f11.xlsx
+++ b/state_results/Rivers/MangateraatdsDannevirkeSTP_7cc8991f11.xlsx
@@ -13730,13 +13730,13 @@
         <v>820</v>
       </c>
       <c r="G166" t="n">
-        <v>1588.80569704396</v>
+        <v>1630.80960874043</v>
       </c>
       <c r="H166" t="n">
-        <v>9700</v>
+        <v>10392.3117871313</v>
       </c>
       <c r="I166" t="n">
-        <v>7907.74455</v>
+        <v>8890</v>
       </c>
       <c r="J166" t="n">
         <v>64.406779661017</v>
@@ -13815,13 +13815,13 @@
         <v>820</v>
       </c>
       <c r="G167" t="n">
-        <v>1588.80569704396</v>
+        <v>1630.80960874043</v>
       </c>
       <c r="H167" t="n">
-        <v>9700</v>
+        <v>10392.3117871313</v>
       </c>
       <c r="I167" t="n">
-        <v>7907.74455</v>
+        <v>8890</v>
       </c>
       <c r="J167" t="n">
         <v>64.406779661017</v>
@@ -13900,13 +13900,13 @@
         <v>820</v>
       </c>
       <c r="G168" t="n">
-        <v>1588.80569704396</v>
+        <v>1630.80960874043</v>
       </c>
       <c r="H168" t="n">
-        <v>9700</v>
+        <v>10392.3117871313</v>
       </c>
       <c r="I168" t="n">
-        <v>7907.74455</v>
+        <v>8890</v>
       </c>
       <c r="J168" t="n">
         <v>64.406779661017</v>
@@ -13985,13 +13985,13 @@
         <v>820</v>
       </c>
       <c r="G169" t="n">
-        <v>1588.80569704396</v>
+        <v>1630.80960874043</v>
       </c>
       <c r="H169" t="n">
-        <v>9700</v>
+        <v>10392.3117871313</v>
       </c>
       <c r="I169" t="n">
-        <v>7907.74455</v>
+        <v>8890</v>
       </c>
       <c r="J169" t="n">
         <v>64.406779661017</v>
@@ -15411,10 +15411,10 @@
         <v>600</v>
       </c>
       <c r="G187" t="n">
-        <v>1407.60230721345</v>
+        <v>1449.60621890992</v>
       </c>
       <c r="H187" t="n">
-        <v>9700</v>
+        <v>10392.3117871313</v>
       </c>
       <c r="I187" t="n">
         <v>6684.55</v>
@@ -15496,10 +15496,10 @@
         <v>600</v>
       </c>
       <c r="G188" t="n">
-        <v>1407.60230721345</v>
+        <v>1449.60621890992</v>
       </c>
       <c r="H188" t="n">
-        <v>9700</v>
+        <v>10392.3117871313</v>
       </c>
       <c r="I188" t="n">
         <v>6684.55</v>
@@ -15581,10 +15581,10 @@
         <v>600</v>
       </c>
       <c r="G189" t="n">
-        <v>1407.60230721345</v>
+        <v>1449.60621890992</v>
       </c>
       <c r="H189" t="n">
-        <v>9700</v>
+        <v>10392.3117871313</v>
       </c>
       <c r="I189" t="n">
         <v>6684.55</v>
@@ -15666,10 +15666,10 @@
         <v>600</v>
       </c>
       <c r="G190" t="n">
-        <v>1407.60230721345</v>
+        <v>1449.60621890992</v>
       </c>
       <c r="H190" t="n">
-        <v>9700</v>
+        <v>10392.3117871313</v>
       </c>
       <c r="I190" t="n">
         <v>6684.55</v>

--- a/state_results/Rivers/MangateraatdsDannevirkeSTP_7cc8991f11.xlsx
+++ b/state_results/Rivers/MangateraatdsDannevirkeSTP_7cc8991f11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="74">
   <si>
     <t>site name</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>Impact</t>
@@ -590,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U202"/>
+  <dimension ref="A1:U222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,7 +678,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2">
         <v>5.5</v>
@@ -690,7 +693,7 @@
         <v>109.75</v>
       </c>
       <c r="L2">
-        <v>15.65</v>
+        <v>13</v>
       </c>
       <c r="M2">
         <v>60</v>
@@ -705,19 +708,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -734,7 +737,7 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F3">
         <v>6.75</v>
@@ -749,7 +752,7 @@
         <v>110.5</v>
       </c>
       <c r="L3">
-        <v>36</v>
+        <v>24.5</v>
       </c>
       <c r="M3">
         <v>64.90000000000001</v>
@@ -764,19 +767,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -793,7 +796,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F4">
         <v>1.4</v>
@@ -808,7 +811,7 @@
         <v>3.085</v>
       </c>
       <c r="L4">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="M4">
         <v>2.6857</v>
@@ -823,19 +826,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -852,7 +855,7 @@
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F5">
         <v>0.176</v>
@@ -867,7 +870,7 @@
         <v>1.01375</v>
       </c>
       <c r="L5">
-        <v>0.3295</v>
+        <v>0.34</v>
       </c>
       <c r="M5">
         <v>0.4861</v>
@@ -882,19 +885,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -911,7 +914,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F6">
         <v>0.176</v>
@@ -926,7 +929,7 @@
         <v>1.01375</v>
       </c>
       <c r="L6">
-        <v>0.3295</v>
+        <v>0.34</v>
       </c>
       <c r="M6">
         <v>0.4861</v>
@@ -941,19 +944,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -970,7 +973,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F7">
         <v>453</v>
@@ -991,7 +994,7 @@
         <v>66.6666666666667</v>
       </c>
       <c r="L7">
-        <v>772</v>
+        <v>690</v>
       </c>
       <c r="M7">
         <v>1216.66</v>
@@ -1006,19 +1009,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1035,7 +1038,7 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F8">
         <v>453</v>
@@ -1056,7 +1059,7 @@
         <v>66.6666666666667</v>
       </c>
       <c r="L8">
-        <v>772</v>
+        <v>690</v>
       </c>
       <c r="M8">
         <v>1216.66</v>
@@ -1071,19 +1074,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1100,7 +1103,7 @@
         <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9">
         <v>453</v>
@@ -1121,7 +1124,7 @@
         <v>66.6666666666667</v>
       </c>
       <c r="L9">
-        <v>772</v>
+        <v>690</v>
       </c>
       <c r="M9">
         <v>1216.66</v>
@@ -1136,19 +1139,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1165,7 +1168,7 @@
         <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10">
         <v>453</v>
@@ -1186,7 +1189,7 @@
         <v>66.6666666666667</v>
       </c>
       <c r="L10">
-        <v>772</v>
+        <v>690</v>
       </c>
       <c r="M10">
         <v>1216.66</v>
@@ -1201,19 +1204,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1230,13 +1233,13 @@
         <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11">
         <v>0.16351</v>
       </c>
       <c r="G11">
-        <v>0.405010505532355</v>
+        <v>0.404495391129211</v>
       </c>
       <c r="H11">
         <v>2.19739089327269</v>
@@ -1245,7 +1248,7 @@
         <v>1.43858</v>
       </c>
       <c r="L11">
-        <v>0.07045999999999999</v>
+        <v>0.20714</v>
       </c>
       <c r="M11">
         <v>0.96756</v>
@@ -1260,19 +1263,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1289,13 +1292,13 @@
         <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F12">
         <v>0.16351</v>
       </c>
       <c r="G12">
-        <v>0.405010505532355</v>
+        <v>0.404495391129211</v>
       </c>
       <c r="H12">
         <v>2.19739089327269</v>
@@ -1304,7 +1307,7 @@
         <v>1.43858</v>
       </c>
       <c r="L12">
-        <v>0.07045999999999999</v>
+        <v>0.20714</v>
       </c>
       <c r="M12">
         <v>0.96756</v>
@@ -1319,19 +1322,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1348,7 +1351,7 @@
         <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F13">
         <v>0.5847</v>
@@ -1363,7 +1366,7 @@
         <v>1.1606</v>
       </c>
       <c r="L13">
-        <v>0.45605</v>
+        <v>0.47625</v>
       </c>
       <c r="M13">
         <v>0.96</v>
@@ -1378,19 +1381,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1407,7 +1410,7 @@
         <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F14">
         <v>0.5847</v>
@@ -1422,7 +1425,7 @@
         <v>1.1606</v>
       </c>
       <c r="L14">
-        <v>0.45605</v>
+        <v>0.47625</v>
       </c>
       <c r="M14">
         <v>0.96</v>
@@ -1437,19 +1440,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1463,7 +1466,7 @@
         <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15">
         <v>1.244</v>
@@ -1478,7 +1481,7 @@
         <v>2.45775</v>
       </c>
       <c r="L15">
-        <v>0.6909999999999999</v>
+        <v>1.249</v>
       </c>
       <c r="M15">
         <v>1.9666</v>
@@ -1493,19 +1496,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1519,7 +1522,7 @@
         <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F16">
         <v>1.244</v>
@@ -1534,7 +1537,7 @@
         <v>2.45775</v>
       </c>
       <c r="L16">
-        <v>0.6909999999999999</v>
+        <v>1.249</v>
       </c>
       <c r="M16">
         <v>1.9666</v>
@@ -1549,19 +1552,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1575,7 +1578,7 @@
         <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F17">
         <v>1.531</v>
@@ -1590,7 +1593,7 @@
         <v>2.7735</v>
       </c>
       <c r="L17">
-        <v>1.1255</v>
+        <v>1.5655</v>
       </c>
       <c r="M17">
         <v>2.2242</v>
@@ -1605,19 +1608,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1631,7 +1634,7 @@
         <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F18">
         <v>1.531</v>
@@ -1646,7 +1649,7 @@
         <v>2.7735</v>
       </c>
       <c r="L18">
-        <v>1.1255</v>
+        <v>1.5655</v>
       </c>
       <c r="M18">
         <v>2.2242</v>
@@ -1661,19 +1664,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1687,7 +1690,7 @@
         <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F19">
         <v>0.217</v>
@@ -1702,7 +1705,7 @@
         <v>1.14725</v>
       </c>
       <c r="L19">
-        <v>0.4015</v>
+        <v>0.37</v>
       </c>
       <c r="M19">
         <v>0.52335</v>
@@ -1717,19 +1720,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1743,7 +1746,7 @@
         <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F20">
         <v>0.217</v>
@@ -1758,7 +1761,7 @@
         <v>1.14725</v>
       </c>
       <c r="L20">
-        <v>0.4015</v>
+        <v>0.37</v>
       </c>
       <c r="M20">
         <v>0.52335</v>
@@ -1773,19 +1776,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1802,7 +1805,7 @@
         <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21">
         <v>8.5</v>
@@ -1817,7 +1820,7 @@
         <v>109.75</v>
       </c>
       <c r="L21">
-        <v>36</v>
+        <v>29.5</v>
       </c>
       <c r="M21">
         <v>60</v>
@@ -1832,19 +1835,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1861,7 +1864,7 @@
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F22">
         <v>1.475</v>
@@ -1876,7 +1879,7 @@
         <v>3.03</v>
       </c>
       <c r="L22">
-        <v>1.99</v>
+        <v>1.875</v>
       </c>
       <c r="M22">
         <v>2.5014</v>
@@ -1891,19 +1894,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1920,7 +1923,7 @@
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23">
         <v>0.17</v>
@@ -1935,7 +1938,7 @@
         <v>1.0834</v>
       </c>
       <c r="L23">
-        <v>0.4655</v>
+        <v>0.3615</v>
       </c>
       <c r="M23">
         <v>0.51385</v>
@@ -1950,19 +1953,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1979,7 +1982,7 @@
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F24">
         <v>0.17</v>
@@ -1994,7 +1997,7 @@
         <v>1.0834</v>
       </c>
       <c r="L24">
-        <v>0.4655</v>
+        <v>0.3615</v>
       </c>
       <c r="M24">
         <v>0.51385</v>
@@ -2009,19 +2012,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2038,7 +2041,7 @@
         <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F25">
         <v>513.5</v>
@@ -2059,7 +2062,7 @@
         <v>72.9166666666667</v>
       </c>
       <c r="L25">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="M25">
         <v>1272.74</v>
@@ -2074,19 +2077,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2103,7 +2106,7 @@
         <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F26">
         <v>513.5</v>
@@ -2124,7 +2127,7 @@
         <v>72.9166666666667</v>
       </c>
       <c r="L26">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="M26">
         <v>1272.74</v>
@@ -2139,19 +2142,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2168,7 +2171,7 @@
         <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27">
         <v>513.5</v>
@@ -2189,7 +2192,7 @@
         <v>72.9166666666667</v>
       </c>
       <c r="L27">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="M27">
         <v>1272.74</v>
@@ -2204,19 +2207,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2233,7 +2236,7 @@
         <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F28">
         <v>513.5</v>
@@ -2254,7 +2257,7 @@
         <v>72.9166666666667</v>
       </c>
       <c r="L28">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="M28">
         <v>1272.74</v>
@@ -2269,19 +2272,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2298,13 +2301,13 @@
         <v>50</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F29">
         <v>0.24755</v>
       </c>
       <c r="G29">
-        <v>0.430946105452553</v>
+        <v>0.43055286192683</v>
       </c>
       <c r="H29">
         <v>2.19739089327269</v>
@@ -2313,7 +2316,7 @@
         <v>1.43199</v>
       </c>
       <c r="L29">
-        <v>0.27166</v>
+        <v>0.39989</v>
       </c>
       <c r="M29">
         <v>0.96649</v>
@@ -2328,19 +2331,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2357,13 +2360,13 @@
         <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F30">
         <v>0.24755</v>
       </c>
       <c r="G30">
-        <v>0.430946105452553</v>
+        <v>0.43055286192683</v>
       </c>
       <c r="H30">
         <v>2.19739089327269</v>
@@ -2372,7 +2375,7 @@
         <v>1.43199</v>
       </c>
       <c r="L30">
-        <v>0.27166</v>
+        <v>0.39989</v>
       </c>
       <c r="M30">
         <v>0.96649</v>
@@ -2387,19 +2390,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2416,7 +2419,7 @@
         <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F31">
         <v>0.6</v>
@@ -2431,7 +2434,7 @@
         <v>1.19856</v>
       </c>
       <c r="L31">
-        <v>0.39655</v>
+        <v>0.47625</v>
       </c>
       <c r="M31">
         <v>0.98356</v>
@@ -2446,19 +2449,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2475,7 +2478,7 @@
         <v>50</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F32">
         <v>0.6</v>
@@ -2490,7 +2493,7 @@
         <v>1.19856</v>
       </c>
       <c r="L32">
-        <v>0.39655</v>
+        <v>0.47625</v>
       </c>
       <c r="M32">
         <v>0.98356</v>
@@ -2505,19 +2508,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2531,7 +2534,7 @@
         <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33">
         <v>1.275</v>
@@ -2546,7 +2549,7 @@
         <v>2.52015</v>
       </c>
       <c r="L33">
-        <v>1.2595</v>
+        <v>1.3245</v>
       </c>
       <c r="M33">
         <v>2.02417</v>
@@ -2561,19 +2564,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2587,7 +2590,7 @@
         <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F34">
         <v>1.275</v>
@@ -2602,7 +2605,7 @@
         <v>2.52015</v>
       </c>
       <c r="L34">
-        <v>1.2595</v>
+        <v>1.3245</v>
       </c>
       <c r="M34">
         <v>2.02417</v>
@@ -2617,19 +2620,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2643,7 +2646,7 @@
         <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F35">
         <v>1.664</v>
@@ -2658,7 +2661,7 @@
         <v>2.9838</v>
       </c>
       <c r="L35">
-        <v>1.7725</v>
+        <v>1.803</v>
       </c>
       <c r="M35">
         <v>2.27412</v>
@@ -2673,19 +2676,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2699,7 +2702,7 @@
         <v>50</v>
       </c>
       <c r="E36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F36">
         <v>1.664</v>
@@ -2714,7 +2717,7 @@
         <v>2.9838</v>
       </c>
       <c r="L36">
-        <v>1.7725</v>
+        <v>1.803</v>
       </c>
       <c r="M36">
         <v>2.27412</v>
@@ -2729,19 +2732,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2755,7 +2758,7 @@
         <v>50</v>
       </c>
       <c r="E37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F37">
         <v>0.192</v>
@@ -2770,7 +2773,7 @@
         <v>1.20795</v>
       </c>
       <c r="L37">
-        <v>0.5135</v>
+        <v>0.3925</v>
       </c>
       <c r="M37">
         <v>0.54918</v>
@@ -2785,19 +2788,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2811,7 +2814,7 @@
         <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F38">
         <v>0.192</v>
@@ -2826,7 +2829,7 @@
         <v>1.20795</v>
       </c>
       <c r="L38">
-        <v>0.5135</v>
+        <v>0.3925</v>
       </c>
       <c r="M38">
         <v>0.54918</v>
@@ -2841,19 +2844,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2870,7 +2873,7 @@
         <v>51</v>
       </c>
       <c r="E39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39">
         <v>11</v>
@@ -2885,7 +2888,7 @@
         <v>98.25</v>
       </c>
       <c r="L39">
-        <v>36</v>
+        <v>29.5</v>
       </c>
       <c r="M39">
         <v>52.91</v>
@@ -2900,19 +2903,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2929,7 +2932,7 @@
         <v>51</v>
       </c>
       <c r="E40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F40">
         <v>1.6</v>
@@ -2944,7 +2947,7 @@
         <v>3</v>
       </c>
       <c r="L40">
-        <v>2.085</v>
+        <v>1.96</v>
       </c>
       <c r="M40">
         <v>2.5105</v>
@@ -2959,19 +2962,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2988,7 +2991,7 @@
         <v>51</v>
       </c>
       <c r="E41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F41">
         <v>0.176</v>
@@ -3003,7 +3006,7 @@
         <v>1.06045</v>
       </c>
       <c r="L41">
-        <v>0.4655</v>
+        <v>0.376</v>
       </c>
       <c r="M41">
         <v>0.531</v>
@@ -3018,19 +3021,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3047,7 +3050,7 @@
         <v>51</v>
       </c>
       <c r="E42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F42">
         <v>0.176</v>
@@ -3062,7 +3065,7 @@
         <v>1.06045</v>
       </c>
       <c r="L42">
-        <v>0.4655</v>
+        <v>0.376</v>
       </c>
       <c r="M42">
         <v>0.531</v>
@@ -3077,19 +3080,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3106,7 +3109,7 @@
         <v>51</v>
       </c>
       <c r="E43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F43">
         <v>570</v>
@@ -3127,7 +3130,7 @@
         <v>72.88135593220341</v>
       </c>
       <c r="L43">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="M43">
         <v>1306.11</v>
@@ -3142,19 +3145,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3171,7 +3174,7 @@
         <v>51</v>
       </c>
       <c r="E44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F44">
         <v>570</v>
@@ -3192,7 +3195,7 @@
         <v>72.88135593220341</v>
       </c>
       <c r="L44">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="M44">
         <v>1306.11</v>
@@ -3207,19 +3210,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3236,7 +3239,7 @@
         <v>51</v>
       </c>
       <c r="E45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F45">
         <v>570</v>
@@ -3257,7 +3260,7 @@
         <v>72.88135593220341</v>
       </c>
       <c r="L45">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="M45">
         <v>1306.11</v>
@@ -3272,19 +3275,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3301,7 +3304,7 @@
         <v>51</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F46">
         <v>570</v>
@@ -3322,7 +3325,7 @@
         <v>72.88135593220341</v>
       </c>
       <c r="L46">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="M46">
         <v>1306.11</v>
@@ -3337,19 +3340,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3366,7 +3369,7 @@
         <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F47">
         <v>101.21</v>
@@ -3396,16 +3399,16 @@
         <v>5542493.4</v>
       </c>
       <c r="Q47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3422,13 +3425,13 @@
         <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F48">
         <v>0.24838</v>
       </c>
       <c r="G48">
-        <v>0.529085580060209</v>
+        <v>0.528767262846119</v>
       </c>
       <c r="H48">
         <v>2.454618514363</v>
@@ -3452,19 +3455,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U48" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3481,13 +3484,13 @@
         <v>51</v>
       </c>
       <c r="E49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F49">
         <v>0.24838</v>
       </c>
       <c r="G49">
-        <v>0.529085580060209</v>
+        <v>0.528767262846119</v>
       </c>
       <c r="H49">
         <v>2.454618514363</v>
@@ -3511,19 +3514,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3540,7 +3543,7 @@
         <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F50">
         <v>0.6763</v>
@@ -3555,7 +3558,7 @@
         <v>1.29506</v>
       </c>
       <c r="L50">
-        <v>0.48</v>
+        <v>0.4982</v>
       </c>
       <c r="M50">
         <v>1.09157</v>
@@ -3570,19 +3573,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3599,7 +3602,7 @@
         <v>51</v>
       </c>
       <c r="E51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F51">
         <v>0.6763</v>
@@ -3614,7 +3617,7 @@
         <v>1.29506</v>
       </c>
       <c r="L51">
-        <v>0.48</v>
+        <v>0.4982</v>
       </c>
       <c r="M51">
         <v>1.09157</v>
@@ -3629,19 +3632,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3655,7 +3658,7 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F52">
         <v>1.441</v>
@@ -3685,19 +3688,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3711,7 +3714,7 @@
         <v>51</v>
       </c>
       <c r="E53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F53">
         <v>1.441</v>
@@ -3741,19 +3744,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3767,7 +3770,7 @@
         <v>51</v>
       </c>
       <c r="E54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F54">
         <v>1.769</v>
@@ -3797,19 +3800,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3823,7 +3826,7 @@
         <v>51</v>
       </c>
       <c r="E55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F55">
         <v>1.769</v>
@@ -3853,19 +3856,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3879,7 +3882,7 @@
         <v>51</v>
       </c>
       <c r="E56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F56">
         <v>0.201</v>
@@ -3894,7 +3897,7 @@
         <v>1.16235</v>
       </c>
       <c r="L56">
-        <v>0.5135</v>
+        <v>0.4405</v>
       </c>
       <c r="M56">
         <v>0.58244</v>
@@ -3909,19 +3912,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U56" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3935,7 +3938,7 @@
         <v>51</v>
       </c>
       <c r="E57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F57">
         <v>0.201</v>
@@ -3950,7 +3953,7 @@
         <v>1.16235</v>
       </c>
       <c r="L57">
-        <v>0.5135</v>
+        <v>0.4405</v>
       </c>
       <c r="M57">
         <v>0.58244</v>
@@ -3965,19 +3968,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U57" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -3994,7 +3997,7 @@
         <v>52</v>
       </c>
       <c r="E58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F58">
         <v>11</v>
@@ -4009,7 +4012,7 @@
         <v>109.75</v>
       </c>
       <c r="L58">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M58">
         <v>53.48</v>
@@ -4024,19 +4027,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4053,7 +4056,7 @@
         <v>52</v>
       </c>
       <c r="E59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F59">
         <v>1.55</v>
@@ -4068,7 +4071,7 @@
         <v>2.9175</v>
       </c>
       <c r="L59">
-        <v>1.97</v>
+        <v>1.817</v>
       </c>
       <c r="M59">
         <v>2.1065</v>
@@ -4083,19 +4086,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4112,7 +4115,7 @@
         <v>52</v>
       </c>
       <c r="E60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F60">
         <v>0.185</v>
@@ -4127,7 +4130,7 @@
         <v>1.06045</v>
       </c>
       <c r="L60">
-        <v>0.5145</v>
+        <v>0.456</v>
       </c>
       <c r="M60">
         <v>0.5535600000000001</v>
@@ -4142,19 +4145,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4171,7 +4174,7 @@
         <v>52</v>
       </c>
       <c r="E61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F61">
         <v>0.185</v>
@@ -4186,7 +4189,7 @@
         <v>1.06045</v>
       </c>
       <c r="L61">
-        <v>0.5145</v>
+        <v>0.456</v>
       </c>
       <c r="M61">
         <v>0.5535600000000001</v>
@@ -4201,19 +4204,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4230,7 +4233,7 @@
         <v>52</v>
       </c>
       <c r="E62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F62">
         <v>582</v>
@@ -4251,7 +4254,7 @@
         <v>79.6610169491525</v>
       </c>
       <c r="L62">
-        <v>835</v>
+        <v>790</v>
       </c>
       <c r="M62">
         <v>1494</v>
@@ -4266,19 +4269,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4295,7 +4298,7 @@
         <v>52</v>
       </c>
       <c r="E63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F63">
         <v>582</v>
@@ -4316,7 +4319,7 @@
         <v>79.6610169491525</v>
       </c>
       <c r="L63">
-        <v>835</v>
+        <v>790</v>
       </c>
       <c r="M63">
         <v>1494</v>
@@ -4331,19 +4334,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U63" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4360,7 +4363,7 @@
         <v>52</v>
       </c>
       <c r="E64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F64">
         <v>582</v>
@@ -4381,7 +4384,7 @@
         <v>79.6610169491525</v>
       </c>
       <c r="L64">
-        <v>835</v>
+        <v>790</v>
       </c>
       <c r="M64">
         <v>1494</v>
@@ -4396,19 +4399,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S64" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U64" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4425,7 +4428,7 @@
         <v>52</v>
       </c>
       <c r="E65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F65">
         <v>582</v>
@@ -4446,7 +4449,7 @@
         <v>79.6610169491525</v>
       </c>
       <c r="L65">
-        <v>835</v>
+        <v>790</v>
       </c>
       <c r="M65">
         <v>1494</v>
@@ -4461,19 +4464,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q65" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S65" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T65" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4490,7 +4493,7 @@
         <v>52</v>
       </c>
       <c r="E66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F66">
         <v>101.21</v>
@@ -4520,16 +4523,16 @@
         <v>5542493.4</v>
       </c>
       <c r="Q66" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R66" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T66" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4546,13 +4549,13 @@
         <v>52</v>
       </c>
       <c r="E67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F67">
         <v>0.29433</v>
       </c>
       <c r="G67">
-        <v>0.627051609335728</v>
+        <v>0.626733292121638</v>
       </c>
       <c r="H67">
         <v>2.86478498890758</v>
@@ -4561,7 +4564,7 @@
         <v>2.35173</v>
       </c>
       <c r="L67">
-        <v>0.87085</v>
+        <v>0.66221</v>
       </c>
       <c r="M67">
         <v>1.41988</v>
@@ -4576,19 +4579,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R67" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S67" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4605,13 +4608,13 @@
         <v>52</v>
       </c>
       <c r="E68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F68">
         <v>0.29433</v>
       </c>
       <c r="G68">
-        <v>0.627051609335728</v>
+        <v>0.626733292121638</v>
       </c>
       <c r="H68">
         <v>2.86478498890758</v>
@@ -4620,7 +4623,7 @@
         <v>2.35173</v>
       </c>
       <c r="L68">
-        <v>0.87085</v>
+        <v>0.66221</v>
       </c>
       <c r="M68">
         <v>1.41988</v>
@@ -4635,19 +4638,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q68" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R68" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T68" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U68" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4664,7 +4667,7 @@
         <v>52</v>
       </c>
       <c r="E69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F69">
         <v>0.6999</v>
@@ -4679,7 +4682,7 @@
         <v>1.47014</v>
       </c>
       <c r="L69">
-        <v>0.42555</v>
+        <v>0.48875</v>
       </c>
       <c r="M69">
         <v>1.15039</v>
@@ -4694,19 +4697,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S69" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U69" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4723,7 +4726,7 @@
         <v>52</v>
       </c>
       <c r="E70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F70">
         <v>0.6999</v>
@@ -4738,7 +4741,7 @@
         <v>1.47014</v>
       </c>
       <c r="L70">
-        <v>0.42555</v>
+        <v>0.48875</v>
       </c>
       <c r="M70">
         <v>1.15039</v>
@@ -4753,19 +4756,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R70" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S70" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T70" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U70" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4779,7 +4782,7 @@
         <v>52</v>
       </c>
       <c r="E71" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F71">
         <v>1.53</v>
@@ -4794,7 +4797,7 @@
         <v>3.603</v>
       </c>
       <c r="L71">
-        <v>1.955</v>
+        <v>1.93</v>
       </c>
       <c r="M71">
         <v>2.56753</v>
@@ -4809,19 +4812,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q71" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R71" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S71" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T71" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U71" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4835,7 +4838,7 @@
         <v>52</v>
       </c>
       <c r="E72" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F72">
         <v>1.53</v>
@@ -4850,7 +4853,7 @@
         <v>3.603</v>
       </c>
       <c r="L72">
-        <v>1.955</v>
+        <v>1.93</v>
       </c>
       <c r="M72">
         <v>2.56753</v>
@@ -4865,19 +4868,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q72" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R72" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S72" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T72" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U72" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4891,7 +4894,7 @@
         <v>52</v>
       </c>
       <c r="E73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F73">
         <v>1.945</v>
@@ -4906,7 +4909,7 @@
         <v>3.8792</v>
       </c>
       <c r="L73">
-        <v>2.4285</v>
+        <v>2.274</v>
       </c>
       <c r="M73">
         <v>3.0017</v>
@@ -4921,19 +4924,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q73" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R73" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S73" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T73" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4947,7 +4950,7 @@
         <v>52</v>
       </c>
       <c r="E74" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F74">
         <v>1.945</v>
@@ -4962,7 +4965,7 @@
         <v>3.8792</v>
       </c>
       <c r="L74">
-        <v>2.4285</v>
+        <v>2.274</v>
       </c>
       <c r="M74">
         <v>3.0017</v>
@@ -4977,19 +4980,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q74" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S74" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T74" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U74" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -5003,7 +5006,7 @@
         <v>52</v>
       </c>
       <c r="E75" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F75">
         <v>0.217</v>
@@ -5018,7 +5021,7 @@
         <v>1.16235</v>
       </c>
       <c r="L75">
-        <v>0.5525</v>
+        <v>0.5085</v>
       </c>
       <c r="M75">
         <v>0.61799</v>
@@ -5033,19 +5036,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q75" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R75" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S75" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T75" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U75" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5059,7 +5062,7 @@
         <v>52</v>
       </c>
       <c r="E76" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F76">
         <v>0.217</v>
@@ -5074,7 +5077,7 @@
         <v>1.16235</v>
       </c>
       <c r="L76">
-        <v>0.5525</v>
+        <v>0.5085</v>
       </c>
       <c r="M76">
         <v>0.61799</v>
@@ -5089,19 +5092,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q76" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R76" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S76" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U76" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5118,7 +5121,7 @@
         <v>53</v>
       </c>
       <c r="E77" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F77">
         <v>0.446</v>
@@ -5148,16 +5151,16 @@
         <v>5542493.4</v>
       </c>
       <c r="Q77" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R77" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S77" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T77" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5174,7 +5177,7 @@
         <v>53</v>
       </c>
       <c r="E78" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F78">
         <v>11</v>
@@ -5189,7 +5192,7 @@
         <v>90</v>
       </c>
       <c r="L78">
-        <v>40.5</v>
+        <v>37.25</v>
       </c>
       <c r="M78">
         <v>44.96</v>
@@ -5204,19 +5207,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q78" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R78" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S78" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T78" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U78" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5233,7 +5236,7 @@
         <v>53</v>
       </c>
       <c r="E79" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F79">
         <v>1.47</v>
@@ -5248,7 +5251,7 @@
         <v>2.664</v>
       </c>
       <c r="L79">
-        <v>1.835</v>
+        <v>1.817</v>
       </c>
       <c r="M79">
         <v>2.0864</v>
@@ -5263,19 +5266,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q79" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S79" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T79" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U79" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5292,7 +5295,7 @@
         <v>53</v>
       </c>
       <c r="E80" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F80">
         <v>0.1695</v>
@@ -5307,7 +5310,7 @@
         <v>0.8305</v>
       </c>
       <c r="L80">
-        <v>0.456</v>
+        <v>0.4315</v>
       </c>
       <c r="M80">
         <v>0.4819</v>
@@ -5322,19 +5325,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q80" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R80" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S80" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T80" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U80" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5351,7 +5354,7 @@
         <v>53</v>
       </c>
       <c r="E81" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F81">
         <v>0.1695</v>
@@ -5366,7 +5369,7 @@
         <v>0.8305</v>
       </c>
       <c r="L81">
-        <v>0.456</v>
+        <v>0.4315</v>
       </c>
       <c r="M81">
         <v>0.4819</v>
@@ -5381,19 +5384,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q81" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R81" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S81" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T81" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U81" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5410,7 +5413,7 @@
         <v>53</v>
       </c>
       <c r="E82" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F82">
         <v>677.5</v>
@@ -5431,7 +5434,7 @@
         <v>80</v>
       </c>
       <c r="L82">
-        <v>895</v>
+        <v>845</v>
       </c>
       <c r="M82">
         <v>1460</v>
@@ -5446,19 +5449,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q82" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R82" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S82" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T82" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U82" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5475,7 +5478,7 @@
         <v>53</v>
       </c>
       <c r="E83" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F83">
         <v>677.5</v>
@@ -5496,7 +5499,7 @@
         <v>80</v>
       </c>
       <c r="L83">
-        <v>895</v>
+        <v>845</v>
       </c>
       <c r="M83">
         <v>1460</v>
@@ -5511,19 +5514,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q83" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R83" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S83" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T83" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U83" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5540,7 +5543,7 @@
         <v>53</v>
       </c>
       <c r="E84" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F84">
         <v>677.5</v>
@@ -5561,7 +5564,7 @@
         <v>80</v>
       </c>
       <c r="L84">
-        <v>895</v>
+        <v>845</v>
       </c>
       <c r="M84">
         <v>1460</v>
@@ -5576,19 +5579,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q84" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R84" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S84" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T84" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U84" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5605,7 +5608,7 @@
         <v>53</v>
       </c>
       <c r="E85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F85">
         <v>677.5</v>
@@ -5626,7 +5629,7 @@
         <v>80</v>
       </c>
       <c r="L85">
-        <v>895</v>
+        <v>845</v>
       </c>
       <c r="M85">
         <v>1460</v>
@@ -5641,19 +5644,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q85" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R85" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S85" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T85" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U85" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5670,7 +5673,7 @@
         <v>53</v>
       </c>
       <c r="E86" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F86">
         <v>101.21</v>
@@ -5700,16 +5703,16 @@
         <v>5542493.4</v>
       </c>
       <c r="Q86" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R86" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S86" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T86" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -5726,13 +5729,13 @@
         <v>53</v>
       </c>
       <c r="E87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F87">
         <v>0.2235</v>
       </c>
       <c r="G87">
-        <v>0.551627514327982</v>
+        <v>0.551488030224488</v>
       </c>
       <c r="H87">
         <v>2.86478498890758</v>
@@ -5741,7 +5744,7 @@
         <v>2.25304</v>
       </c>
       <c r="L87">
-        <v>0.87085</v>
+        <v>0.58004</v>
       </c>
       <c r="M87">
         <v>1.41943</v>
@@ -5756,19 +5759,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q87" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S87" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T87" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U87" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -5785,13 +5788,13 @@
         <v>53</v>
       </c>
       <c r="E88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F88">
         <v>0.2235</v>
       </c>
       <c r="G88">
-        <v>0.551627514327982</v>
+        <v>0.551488030224488</v>
       </c>
       <c r="H88">
         <v>2.86478498890758</v>
@@ -5800,7 +5803,7 @@
         <v>2.25304</v>
       </c>
       <c r="L88">
-        <v>0.87085</v>
+        <v>0.58004</v>
       </c>
       <c r="M88">
         <v>1.41943</v>
@@ -5815,19 +5818,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q88" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R88" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S88" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T88" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U88" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -5844,7 +5847,7 @@
         <v>53</v>
       </c>
       <c r="E89" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F89">
         <v>0.7591</v>
@@ -5859,7 +5862,7 @@
         <v>1.51</v>
       </c>
       <c r="L89">
-        <v>0.3875</v>
+        <v>0.51</v>
       </c>
       <c r="M89">
         <v>1.18024</v>
@@ -5874,19 +5877,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q89" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R89" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S89" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T89" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U89" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5903,7 +5906,7 @@
         <v>53</v>
       </c>
       <c r="E90" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F90">
         <v>0.7591</v>
@@ -5918,7 +5921,7 @@
         <v>1.51</v>
       </c>
       <c r="L90">
-        <v>0.3875</v>
+        <v>0.51</v>
       </c>
       <c r="M90">
         <v>1.18024</v>
@@ -5933,19 +5936,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R90" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S90" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T90" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U90" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -5962,7 +5965,7 @@
         <v>53</v>
       </c>
       <c r="E91" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F91">
         <v>4.57</v>
@@ -5992,16 +5995,16 @@
         <v>5542493.4</v>
       </c>
       <c r="Q91" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R91" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S91" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T91" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -6015,7 +6018,7 @@
         <v>53</v>
       </c>
       <c r="E92" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F92">
         <v>1.4785</v>
@@ -6030,7 +6033,7 @@
         <v>3.6</v>
       </c>
       <c r="L92">
-        <v>1.955</v>
+        <v>1.6035</v>
       </c>
       <c r="M92">
         <v>2.401</v>
@@ -6045,19 +6048,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q92" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R92" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S92" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T92" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U92" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6071,7 +6074,7 @@
         <v>53</v>
       </c>
       <c r="E93" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F93">
         <v>1.4785</v>
@@ -6086,7 +6089,7 @@
         <v>3.6</v>
       </c>
       <c r="L93">
-        <v>1.955</v>
+        <v>1.6035</v>
       </c>
       <c r="M93">
         <v>2.401</v>
@@ -6101,19 +6104,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q93" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R93" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S93" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T93" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U93" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6127,7 +6130,7 @@
         <v>53</v>
       </c>
       <c r="E94" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F94">
         <v>1.7555</v>
@@ -6142,7 +6145,7 @@
         <v>3.86</v>
       </c>
       <c r="L94">
-        <v>2.4285</v>
+        <v>2.0735</v>
       </c>
       <c r="M94">
         <v>2.789</v>
@@ -6157,19 +6160,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q94" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R94" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S94" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T94" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U94" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6183,7 +6186,7 @@
         <v>53</v>
       </c>
       <c r="E95" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F95">
         <v>1.7555</v>
@@ -6198,7 +6201,7 @@
         <v>3.86</v>
       </c>
       <c r="L95">
-        <v>2.4285</v>
+        <v>2.0735</v>
       </c>
       <c r="M95">
         <v>2.789</v>
@@ -6213,19 +6216,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q95" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R95" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S95" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T95" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U95" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6239,7 +6242,7 @@
         <v>53</v>
       </c>
       <c r="E96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F96">
         <v>0.2035</v>
@@ -6254,7 +6257,7 @@
         <v>0.917</v>
       </c>
       <c r="L96">
-        <v>0.5295</v>
+        <v>0.4885</v>
       </c>
       <c r="M96">
         <v>0.5393</v>
@@ -6269,19 +6272,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q96" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R96" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S96" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T96" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U96" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6295,7 +6298,7 @@
         <v>53</v>
       </c>
       <c r="E97" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F97">
         <v>0.2035</v>
@@ -6310,7 +6313,7 @@
         <v>0.917</v>
       </c>
       <c r="L97">
-        <v>0.5295</v>
+        <v>0.4885</v>
       </c>
       <c r="M97">
         <v>0.5393</v>
@@ -6325,19 +6328,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q97" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R97" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S97" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T97" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U97" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6354,7 +6357,7 @@
         <v>54</v>
       </c>
       <c r="E98" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F98">
         <v>0.405</v>
@@ -6384,16 +6387,16 @@
         <v>5542493.4</v>
       </c>
       <c r="Q98" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R98" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S98" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T98" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6410,7 +6413,7 @@
         <v>54</v>
       </c>
       <c r="E99" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F99">
         <v>13.25</v>
@@ -6425,7 +6428,7 @@
         <v>119</v>
       </c>
       <c r="L99">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="M99">
         <v>56.6</v>
@@ -6440,19 +6443,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q99" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R99" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S99" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T99" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U99" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6469,13 +6472,13 @@
         <v>54</v>
       </c>
       <c r="E100" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F100">
         <v>1.32</v>
       </c>
       <c r="G100">
-        <v>1.27598993732659</v>
+        <v>1.2757690879677</v>
       </c>
       <c r="H100">
         <v>2.93</v>
@@ -6484,7 +6487,7 @@
         <v>2.5365</v>
       </c>
       <c r="L100">
-        <v>1.814</v>
+        <v>1.68</v>
       </c>
       <c r="M100">
         <v>2.0686</v>
@@ -6499,19 +6502,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q100" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R100" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S100" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T100" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U100" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6528,7 +6531,7 @@
         <v>54</v>
       </c>
       <c r="E101" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F101">
         <v>0.19</v>
@@ -6543,7 +6546,7 @@
         <v>0.9429999999999999</v>
       </c>
       <c r="L101">
-        <v>0.4865</v>
+        <v>0.454</v>
       </c>
       <c r="M101">
         <v>0.5907</v>
@@ -6558,19 +6561,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q101" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R101" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S101" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T101" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U101" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6587,7 +6590,7 @@
         <v>54</v>
       </c>
       <c r="E102" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F102">
         <v>0.19</v>
@@ -6602,7 +6605,7 @@
         <v>0.9429999999999999</v>
       </c>
       <c r="L102">
-        <v>0.4865</v>
+        <v>0.454</v>
       </c>
       <c r="M102">
         <v>0.5907</v>
@@ -6617,19 +6620,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q102" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R102" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S102" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T102" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U102" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -6646,13 +6649,13 @@
         <v>54</v>
       </c>
       <c r="E103" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F103">
         <v>658</v>
       </c>
       <c r="G103">
-        <v>1255.41881564917</v>
+        <v>1255.40193042553</v>
       </c>
       <c r="H103">
         <v>9700</v>
@@ -6667,7 +6670,7 @@
         <v>81.6666666666667</v>
       </c>
       <c r="L103">
-        <v>835</v>
+        <v>790</v>
       </c>
       <c r="M103">
         <v>1630</v>
@@ -6682,19 +6685,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q103" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R103" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S103" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T103" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U103" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -6711,13 +6714,13 @@
         <v>54</v>
       </c>
       <c r="E104" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F104">
         <v>658</v>
       </c>
       <c r="G104">
-        <v>1255.41881564917</v>
+        <v>1255.40193042553</v>
       </c>
       <c r="H104">
         <v>9700</v>
@@ -6732,7 +6735,7 @@
         <v>81.6666666666667</v>
       </c>
       <c r="L104">
-        <v>835</v>
+        <v>790</v>
       </c>
       <c r="M104">
         <v>1630</v>
@@ -6747,19 +6750,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q104" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R104" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S104" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T104" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U104" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -6776,13 +6779,13 @@
         <v>54</v>
       </c>
       <c r="E105" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F105">
         <v>658</v>
       </c>
       <c r="G105">
-        <v>1255.41881564917</v>
+        <v>1255.40193042553</v>
       </c>
       <c r="H105">
         <v>9700</v>
@@ -6797,7 +6800,7 @@
         <v>81.6666666666667</v>
       </c>
       <c r="L105">
-        <v>835</v>
+        <v>790</v>
       </c>
       <c r="M105">
         <v>1630</v>
@@ -6812,19 +6815,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q105" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R105" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S105" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T105" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U105" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -6841,13 +6844,13 @@
         <v>54</v>
       </c>
       <c r="E106" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F106">
         <v>658</v>
       </c>
       <c r="G106">
-        <v>1255.41881564917</v>
+        <v>1255.40193042553</v>
       </c>
       <c r="H106">
         <v>9700</v>
@@ -6862,7 +6865,7 @@
         <v>81.6666666666667</v>
       </c>
       <c r="L106">
-        <v>835</v>
+        <v>790</v>
       </c>
       <c r="M106">
         <v>1630</v>
@@ -6877,19 +6880,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q106" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R106" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S106" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T106" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U106" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -6906,7 +6909,7 @@
         <v>54</v>
       </c>
       <c r="E107" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F107">
         <v>102</v>
@@ -6936,16 +6939,16 @@
         <v>5542493.4</v>
       </c>
       <c r="Q107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R107" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S107" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T107" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -6962,13 +6965,13 @@
         <v>54</v>
       </c>
       <c r="E108" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F108">
         <v>0.21339</v>
       </c>
       <c r="G108">
-        <v>0.562172003014493</v>
+        <v>0.562164530698852</v>
       </c>
       <c r="H108">
         <v>2.86478498890758</v>
@@ -6977,7 +6980,7 @@
         <v>2.27543</v>
       </c>
       <c r="L108">
-        <v>0.87085</v>
+        <v>0.58004</v>
       </c>
       <c r="M108">
         <v>1.41988</v>
@@ -6992,19 +6995,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q108" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R108" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S108" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T108" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U108" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -7021,13 +7024,13 @@
         <v>54</v>
       </c>
       <c r="E109" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F109">
         <v>0.21339</v>
       </c>
       <c r="G109">
-        <v>0.562172003014493</v>
+        <v>0.562164530698852</v>
       </c>
       <c r="H109">
         <v>2.86478498890758</v>
@@ -7036,7 +7039,7 @@
         <v>2.27543</v>
       </c>
       <c r="L109">
-        <v>0.87085</v>
+        <v>0.58004</v>
       </c>
       <c r="M109">
         <v>1.41988</v>
@@ -7051,19 +7054,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q109" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R109" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S109" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T109" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U109" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7080,7 +7083,7 @@
         <v>54</v>
       </c>
       <c r="E110" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F110">
         <v>0.7645</v>
@@ -7095,7 +7098,7 @@
         <v>1.56</v>
       </c>
       <c r="L110">
-        <v>0.3875</v>
+        <v>0.469</v>
       </c>
       <c r="M110">
         <v>1.263</v>
@@ -7110,19 +7113,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q110" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R110" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S110" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T110" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U110" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7139,7 +7142,7 @@
         <v>54</v>
       </c>
       <c r="E111" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F111">
         <v>0.7645</v>
@@ -7154,7 +7157,7 @@
         <v>1.56</v>
       </c>
       <c r="L111">
-        <v>0.3875</v>
+        <v>0.469</v>
       </c>
       <c r="M111">
         <v>1.263</v>
@@ -7169,19 +7172,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q111" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R111" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S111" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T111" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U111" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7198,7 +7201,7 @@
         <v>54</v>
       </c>
       <c r="E112" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F112">
         <v>4.57</v>
@@ -7228,16 +7231,16 @@
         <v>5542493.4</v>
       </c>
       <c r="Q112" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R112" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S112" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T112" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7251,7 +7254,7 @@
         <v>54</v>
       </c>
       <c r="E113" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F113">
         <v>1.535</v>
@@ -7266,7 +7269,7 @@
         <v>3.6</v>
       </c>
       <c r="L113">
-        <v>1.955</v>
+        <v>1.635</v>
       </c>
       <c r="M113">
         <v>2.415</v>
@@ -7281,19 +7284,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q113" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R113" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S113" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T113" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U113" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7307,7 +7310,7 @@
         <v>54</v>
       </c>
       <c r="E114" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F114">
         <v>1.535</v>
@@ -7322,7 +7325,7 @@
         <v>3.6</v>
       </c>
       <c r="L114">
-        <v>1.955</v>
+        <v>1.635</v>
       </c>
       <c r="M114">
         <v>2.415</v>
@@ -7337,19 +7340,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q114" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R114" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S114" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T114" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U114" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -7363,7 +7366,7 @@
         <v>54</v>
       </c>
       <c r="E115" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F115">
         <v>1.7895</v>
@@ -7378,7 +7381,7 @@
         <v>3.86</v>
       </c>
       <c r="L115">
-        <v>2.4285</v>
+        <v>2.065</v>
       </c>
       <c r="M115">
         <v>2.789</v>
@@ -7393,19 +7396,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q115" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R115" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S115" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T115" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U115" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -7419,7 +7422,7 @@
         <v>54</v>
       </c>
       <c r="E116" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F116">
         <v>1.7895</v>
@@ -7434,7 +7437,7 @@
         <v>3.86</v>
       </c>
       <c r="L116">
-        <v>2.4285</v>
+        <v>2.065</v>
       </c>
       <c r="M116">
         <v>2.789</v>
@@ -7449,19 +7452,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q116" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R116" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S116" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T116" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U116" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -7475,7 +7478,7 @@
         <v>54</v>
       </c>
       <c r="E117" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F117">
         <v>0.238</v>
@@ -7490,7 +7493,7 @@
         <v>1.025</v>
       </c>
       <c r="L117">
-        <v>0.5415</v>
+        <v>0.521</v>
       </c>
       <c r="M117">
         <v>0.6931</v>
@@ -7505,19 +7508,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q117" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R117" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S117" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T117" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U117" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -7531,7 +7534,7 @@
         <v>54</v>
       </c>
       <c r="E118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F118">
         <v>0.238</v>
@@ -7546,7 +7549,7 @@
         <v>1.025</v>
       </c>
       <c r="L118">
-        <v>0.5415</v>
+        <v>0.521</v>
       </c>
       <c r="M118">
         <v>0.6931</v>
@@ -7561,19 +7564,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q118" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R118" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S118" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T118" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U118" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -7590,7 +7593,7 @@
         <v>55</v>
       </c>
       <c r="E119" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F119">
         <v>0.405</v>
@@ -7620,16 +7623,16 @@
         <v>5542493.4</v>
       </c>
       <c r="Q119" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R119" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S119" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T119" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -7646,7 +7649,7 @@
         <v>55</v>
       </c>
       <c r="E120" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F120">
         <v>19.25</v>
@@ -7661,7 +7664,7 @@
         <v>119.5</v>
       </c>
       <c r="L120">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M120">
         <v>58.3</v>
@@ -7676,19 +7679,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q120" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R120" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S120" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T120" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U120" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -7705,13 +7708,13 @@
         <v>55</v>
       </c>
       <c r="E121" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F121">
         <v>1.32</v>
       </c>
       <c r="G121">
-        <v>1.24227219674746</v>
+        <v>1.24203467951243</v>
       </c>
       <c r="H121">
         <v>2.93</v>
@@ -7720,7 +7723,7 @@
         <v>2.5785</v>
       </c>
       <c r="L121">
-        <v>1.752</v>
+        <v>1.685</v>
       </c>
       <c r="M121">
         <v>2.0935</v>
@@ -7735,19 +7738,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q121" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R121" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S121" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T121" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U121" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -7764,7 +7767,7 @@
         <v>55</v>
       </c>
       <c r="E122" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F122">
         <v>0.255</v>
@@ -7779,7 +7782,7 @@
         <v>1.221</v>
       </c>
       <c r="L122">
-        <v>0.477</v>
+        <v>0.452</v>
       </c>
       <c r="M122">
         <v>0.62646</v>
@@ -7794,19 +7797,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q122" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R122" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S122" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T122" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U122" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -7823,7 +7826,7 @@
         <v>55</v>
       </c>
       <c r="E123" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F123">
         <v>0.255</v>
@@ -7838,7 +7841,7 @@
         <v>1.221</v>
       </c>
       <c r="L123">
-        <v>0.477</v>
+        <v>0.452</v>
       </c>
       <c r="M123">
         <v>0.62646</v>
@@ -7853,19 +7856,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q123" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R123" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S123" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T123" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U123" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -7882,13 +7885,13 @@
         <v>55</v>
       </c>
       <c r="E124" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F124">
         <v>710</v>
       </c>
       <c r="G124">
-        <v>1367.64625320254</v>
+        <v>1367.62908178868</v>
       </c>
       <c r="H124">
         <v>9700</v>
@@ -7903,7 +7906,7 @@
         <v>83.0508474576271</v>
       </c>
       <c r="L124">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="M124">
         <v>1647</v>
@@ -7918,19 +7921,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q124" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R124" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S124" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T124" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U124" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -7947,13 +7950,13 @@
         <v>55</v>
       </c>
       <c r="E125" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F125">
         <v>710</v>
       </c>
       <c r="G125">
-        <v>1367.64625320254</v>
+        <v>1367.62908178868</v>
       </c>
       <c r="H125">
         <v>9700</v>
@@ -7968,7 +7971,7 @@
         <v>83.0508474576271</v>
       </c>
       <c r="L125">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="M125">
         <v>1647</v>
@@ -7983,19 +7986,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q125" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R125" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S125" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T125" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U125" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -8012,13 +8015,13 @@
         <v>55</v>
       </c>
       <c r="E126" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F126">
         <v>710</v>
       </c>
       <c r="G126">
-        <v>1367.64625320254</v>
+        <v>1367.62908178868</v>
       </c>
       <c r="H126">
         <v>9700</v>
@@ -8033,7 +8036,7 @@
         <v>83.0508474576271</v>
       </c>
       <c r="L126">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="M126">
         <v>1647</v>
@@ -8048,19 +8051,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q126" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R126" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S126" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T126" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U126" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -8077,13 +8080,13 @@
         <v>55</v>
       </c>
       <c r="E127" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F127">
         <v>710</v>
       </c>
       <c r="G127">
-        <v>1367.64625320254</v>
+        <v>1367.62908178868</v>
       </c>
       <c r="H127">
         <v>9700</v>
@@ -8098,7 +8101,7 @@
         <v>83.0508474576271</v>
       </c>
       <c r="L127">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="M127">
         <v>1647</v>
@@ -8113,19 +8116,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q127" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R127" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S127" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T127" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U127" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -8142,7 +8145,7 @@
         <v>55</v>
       </c>
       <c r="E128" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F128">
         <v>102</v>
@@ -8172,16 +8175,16 @@
         <v>5542493.4</v>
       </c>
       <c r="Q128" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R128" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S128" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T128" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="129" spans="1:21">
@@ -8198,13 +8201,13 @@
         <v>55</v>
       </c>
       <c r="E129" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F129">
         <v>0.18246</v>
       </c>
       <c r="G129">
-        <v>0.519259404547465</v>
+        <v>0.519259775793609</v>
       </c>
       <c r="H129">
         <v>2.86478498890758</v>
@@ -8228,19 +8231,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R129" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S129" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T129" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U129" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="130" spans="1:21">
@@ -8257,13 +8260,13 @@
         <v>55</v>
       </c>
       <c r="E130" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F130">
         <v>0.18246</v>
       </c>
       <c r="G130">
-        <v>0.519259404547465</v>
+        <v>0.519259775793609</v>
       </c>
       <c r="H130">
         <v>2.86478498890758</v>
@@ -8287,19 +8290,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q130" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R130" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S130" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T130" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U130" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -8316,7 +8319,7 @@
         <v>55</v>
       </c>
       <c r="E131" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F131">
         <v>0.79</v>
@@ -8331,7 +8334,7 @@
         <v>1.565</v>
       </c>
       <c r="L131">
-        <v>0.412</v>
+        <v>0.483</v>
       </c>
       <c r="M131">
         <v>1.27</v>
@@ -8346,19 +8349,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q131" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R131" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S131" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T131" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U131" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -8375,7 +8378,7 @@
         <v>55</v>
       </c>
       <c r="E132" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F132">
         <v>0.79</v>
@@ -8390,7 +8393,7 @@
         <v>1.565</v>
       </c>
       <c r="L132">
-        <v>0.412</v>
+        <v>0.483</v>
       </c>
       <c r="M132">
         <v>1.27</v>
@@ -8405,19 +8408,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q132" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R132" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T132" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U132" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="133" spans="1:21">
@@ -8434,7 +8437,7 @@
         <v>55</v>
       </c>
       <c r="E133" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F133">
         <v>4.57</v>
@@ -8464,16 +8467,16 @@
         <v>5542493.4</v>
       </c>
       <c r="Q133" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R133" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S133" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T133" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="134" spans="1:21">
@@ -8487,7 +8490,7 @@
         <v>55</v>
       </c>
       <c r="E134" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F134">
         <v>1.49</v>
@@ -8502,7 +8505,7 @@
         <v>3.603</v>
       </c>
       <c r="L134">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="M134">
         <v>2.3594</v>
@@ -8517,19 +8520,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q134" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R134" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S134" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T134" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U134" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="135" spans="1:21">
@@ -8543,7 +8546,7 @@
         <v>55</v>
       </c>
       <c r="E135" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F135">
         <v>1.49</v>
@@ -8558,7 +8561,7 @@
         <v>3.603</v>
       </c>
       <c r="L135">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="M135">
         <v>2.3594</v>
@@ -8573,19 +8576,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q135" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R135" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S135" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T135" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U135" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="136" spans="1:21">
@@ -8599,7 +8602,7 @@
         <v>55</v>
       </c>
       <c r="E136" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F136">
         <v>1.79</v>
@@ -8614,7 +8617,7 @@
         <v>3.863</v>
       </c>
       <c r="L136">
-        <v>1.625</v>
+        <v>1.52</v>
       </c>
       <c r="M136">
         <v>2.6294</v>
@@ -8629,19 +8632,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q136" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R136" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S136" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T136" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U136" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="137" spans="1:21">
@@ -8655,7 +8658,7 @@
         <v>55</v>
       </c>
       <c r="E137" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F137">
         <v>1.79</v>
@@ -8670,7 +8673,7 @@
         <v>3.863</v>
       </c>
       <c r="L137">
-        <v>1.625</v>
+        <v>1.52</v>
       </c>
       <c r="M137">
         <v>2.6294</v>
@@ -8685,19 +8688,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q137" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R137" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S137" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T137" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U137" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="138" spans="1:21">
@@ -8711,7 +8714,7 @@
         <v>55</v>
       </c>
       <c r="E138" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F138">
         <v>0.311</v>
@@ -8726,7 +8729,7 @@
         <v>1.321</v>
       </c>
       <c r="L138">
-        <v>0.5415</v>
+        <v>0.516</v>
       </c>
       <c r="M138">
         <v>0.69429</v>
@@ -8741,19 +8744,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q138" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R138" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S138" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T138" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U138" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="139" spans="1:21">
@@ -8767,7 +8770,7 @@
         <v>55</v>
       </c>
       <c r="E139" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F139">
         <v>0.311</v>
@@ -8782,7 +8785,7 @@
         <v>1.321</v>
       </c>
       <c r="L139">
-        <v>0.5415</v>
+        <v>0.516</v>
       </c>
       <c r="M139">
         <v>0.69429</v>
@@ -8797,19 +8800,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q139" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R139" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S139" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T139" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U139" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="140" spans="1:21">
@@ -8826,7 +8829,7 @@
         <v>56</v>
       </c>
       <c r="E140" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F140">
         <v>0.364</v>
@@ -8856,16 +8859,16 @@
         <v>5542493.4</v>
       </c>
       <c r="Q140" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R140" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S140" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T140" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="141" spans="1:21">
@@ -8882,7 +8885,7 @@
         <v>56</v>
       </c>
       <c r="E141" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F141">
         <v>20.5</v>
@@ -8897,7 +8900,7 @@
         <v>119.75</v>
       </c>
       <c r="L141">
-        <v>38.5</v>
+        <v>35.25</v>
       </c>
       <c r="M141">
         <v>55</v>
@@ -8912,19 +8915,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q141" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R141" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S141" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T141" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U141" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="142" spans="1:21">
@@ -8941,13 +8944,13 @@
         <v>56</v>
       </c>
       <c r="E142" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F142">
         <v>1.094</v>
       </c>
       <c r="G142">
-        <v>1.0842918788612</v>
+        <v>1.0840182176991</v>
       </c>
       <c r="H142">
         <v>2.61</v>
@@ -8956,7 +8959,7 @@
         <v>2.268</v>
       </c>
       <c r="L142">
-        <v>1.665</v>
+        <v>1.605</v>
       </c>
       <c r="M142">
         <v>1.9316</v>
@@ -8971,19 +8974,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q142" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R142" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S142" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T142" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U142" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="143" spans="1:21">
@@ -9000,7 +9003,7 @@
         <v>56</v>
       </c>
       <c r="E143" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F143">
         <v>0.259</v>
@@ -9015,7 +9018,7 @@
         <v>1.2575</v>
       </c>
       <c r="L143">
-        <v>0.477</v>
+        <v>0.433</v>
       </c>
       <c r="M143">
         <v>0.78621</v>
@@ -9030,19 +9033,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q143" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R143" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S143" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T143" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U143" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -9059,7 +9062,7 @@
         <v>56</v>
       </c>
       <c r="E144" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F144">
         <v>0.259</v>
@@ -9074,7 +9077,7 @@
         <v>1.2575</v>
       </c>
       <c r="L144">
-        <v>0.477</v>
+        <v>0.433</v>
       </c>
       <c r="M144">
         <v>0.78621</v>
@@ -9089,19 +9092,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q144" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R144" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S144" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T144" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U144" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="145" spans="1:21">
@@ -9118,13 +9121,13 @@
         <v>56</v>
       </c>
       <c r="E145" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F145">
         <v>610</v>
       </c>
       <c r="G145">
-        <v>1310.65178183989</v>
+        <v>1310.57819593655</v>
       </c>
       <c r="H145">
         <v>9700</v>
@@ -9154,19 +9157,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q145" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R145" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S145" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T145" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U145" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="146" spans="1:21">
@@ -9183,13 +9186,13 @@
         <v>56</v>
       </c>
       <c r="E146" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F146">
         <v>610</v>
       </c>
       <c r="G146">
-        <v>1310.65178183989</v>
+        <v>1310.57819593655</v>
       </c>
       <c r="H146">
         <v>9700</v>
@@ -9219,19 +9222,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q146" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R146" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S146" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T146" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U146" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="147" spans="1:21">
@@ -9248,13 +9251,13 @@
         <v>56</v>
       </c>
       <c r="E147" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F147">
         <v>610</v>
       </c>
       <c r="G147">
-        <v>1310.65178183989</v>
+        <v>1310.57819593655</v>
       </c>
       <c r="H147">
         <v>9700</v>
@@ -9284,19 +9287,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q147" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R147" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S147" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T147" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U147" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="148" spans="1:21">
@@ -9313,13 +9316,13 @@
         <v>56</v>
       </c>
       <c r="E148" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F148">
         <v>610</v>
       </c>
       <c r="G148">
-        <v>1310.65178183989</v>
+        <v>1310.57819593655</v>
       </c>
       <c r="H148">
         <v>9700</v>
@@ -9349,19 +9352,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q148" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R148" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S148" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T148" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U148" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="149" spans="1:21">
@@ -9378,7 +9381,7 @@
         <v>56</v>
       </c>
       <c r="E149" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F149">
         <v>102</v>
@@ -9408,16 +9411,16 @@
         <v>5542493.4</v>
       </c>
       <c r="Q149" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R149" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S149" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T149" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="150" spans="1:21">
@@ -9434,7 +9437,7 @@
         <v>56</v>
       </c>
       <c r="E150" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F150">
         <v>0.18447</v>
@@ -9464,19 +9467,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q150" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R150" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S150" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T150" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U150" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="151" spans="1:21">
@@ -9493,7 +9496,7 @@
         <v>56</v>
       </c>
       <c r="E151" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F151">
         <v>0.18447</v>
@@ -9523,19 +9526,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q151" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R151" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S151" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T151" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U151" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="152" spans="1:21">
@@ -9552,7 +9555,7 @@
         <v>56</v>
       </c>
       <c r="E152" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F152">
         <v>0.839</v>
@@ -9567,7 +9570,7 @@
         <v>1.565</v>
       </c>
       <c r="L152">
-        <v>0.355</v>
+        <v>0.428</v>
       </c>
       <c r="M152">
         <v>1.2647</v>
@@ -9582,19 +9585,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q152" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R152" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S152" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T152" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U152" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="153" spans="1:21">
@@ -9611,7 +9614,7 @@
         <v>56</v>
       </c>
       <c r="E153" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F153">
         <v>0.839</v>
@@ -9626,7 +9629,7 @@
         <v>1.565</v>
       </c>
       <c r="L153">
-        <v>0.355</v>
+        <v>0.428</v>
       </c>
       <c r="M153">
         <v>1.2647</v>
@@ -9641,19 +9644,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q153" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R153" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S153" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T153" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U153" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="154" spans="1:21">
@@ -9670,7 +9673,7 @@
         <v>56</v>
       </c>
       <c r="E154" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F154">
         <v>5.266</v>
@@ -9700,16 +9703,16 @@
         <v>5542493.4</v>
       </c>
       <c r="Q154" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R154" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S154" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T154" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="155" spans="1:21">
@@ -9723,7 +9726,7 @@
         <v>56</v>
       </c>
       <c r="E155" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F155">
         <v>1.4</v>
@@ -9738,7 +9741,7 @@
         <v>3.131</v>
       </c>
       <c r="L155">
-        <v>0.7375</v>
+        <v>0.83</v>
       </c>
       <c r="M155">
         <v>2.3594</v>
@@ -9753,19 +9756,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q155" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R155" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S155" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T155" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U155" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="156" spans="1:21">
@@ -9779,7 +9782,7 @@
         <v>56</v>
       </c>
       <c r="E156" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F156">
         <v>1.4</v>
@@ -9794,7 +9797,7 @@
         <v>3.131</v>
       </c>
       <c r="L156">
-        <v>0.7375</v>
+        <v>0.83</v>
       </c>
       <c r="M156">
         <v>2.3594</v>
@@ -9809,19 +9812,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q156" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R156" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S156" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T156" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U156" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="157" spans="1:21">
@@ -9835,7 +9838,7 @@
         <v>56</v>
       </c>
       <c r="E157" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F157">
         <v>1.67</v>
@@ -9850,7 +9853,7 @@
         <v>3.3765</v>
       </c>
       <c r="L157">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="M157">
         <v>2.53</v>
@@ -9865,19 +9868,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q157" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R157" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S157" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T157" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U157" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="158" spans="1:21">
@@ -9891,7 +9894,7 @@
         <v>56</v>
       </c>
       <c r="E158" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F158">
         <v>1.67</v>
@@ -9906,7 +9909,7 @@
         <v>3.3765</v>
       </c>
       <c r="L158">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="M158">
         <v>2.53</v>
@@ -9921,19 +9924,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q158" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R158" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S158" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T158" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U158" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="159" spans="1:21">
@@ -9947,7 +9950,7 @@
         <v>56</v>
       </c>
       <c r="E159" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F159">
         <v>0.326</v>
@@ -9962,7 +9965,7 @@
         <v>1.321</v>
       </c>
       <c r="L159">
-        <v>0.5415</v>
+        <v>0.533</v>
       </c>
       <c r="M159">
         <v>0.83967</v>
@@ -9977,19 +9980,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q159" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R159" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S159" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T159" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U159" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="160" spans="1:21">
@@ -10003,7 +10006,7 @@
         <v>56</v>
       </c>
       <c r="E160" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F160">
         <v>0.326</v>
@@ -10018,7 +10021,7 @@
         <v>1.321</v>
       </c>
       <c r="L160">
-        <v>0.5415</v>
+        <v>0.533</v>
       </c>
       <c r="M160">
         <v>0.83967</v>
@@ -10033,19 +10036,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q160" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R160" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S160" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T160" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U160" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="161" spans="1:21">
@@ -10062,7 +10065,7 @@
         <v>57</v>
       </c>
       <c r="E161" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F161">
         <v>0.405</v>
@@ -10092,16 +10095,16 @@
         <v>5542493.4</v>
       </c>
       <c r="Q161" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R161" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S161" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T161" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="162" spans="1:21">
@@ -10118,7 +10121,7 @@
         <v>57</v>
       </c>
       <c r="E162" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F162">
         <v>18</v>
@@ -10133,7 +10136,7 @@
         <v>119.5</v>
       </c>
       <c r="L162">
-        <v>35.5</v>
+        <v>30.5</v>
       </c>
       <c r="M162">
         <v>51.57</v>
@@ -10148,19 +10151,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q162" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R162" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S162" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T162" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U162" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="163" spans="1:21">
@@ -10177,13 +10180,13 @@
         <v>57</v>
       </c>
       <c r="E163" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F163">
         <v>0.8</v>
       </c>
       <c r="G163">
-        <v>0.994575036605524</v>
+        <v>0.994252256773301</v>
       </c>
       <c r="H163">
         <v>2.61</v>
@@ -10192,7 +10195,7 @@
         <v>2.2995</v>
       </c>
       <c r="L163">
-        <v>1.6</v>
+        <v>1.41</v>
       </c>
       <c r="M163">
         <v>1.9631</v>
@@ -10207,19 +10210,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q163" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R163" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S163" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T163" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U163" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="164" spans="1:21">
@@ -10236,7 +10239,7 @@
         <v>57</v>
       </c>
       <c r="E164" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F164">
         <v>0.259</v>
@@ -10251,7 +10254,7 @@
         <v>1.2575</v>
       </c>
       <c r="L164">
-        <v>0.478</v>
+        <v>0.43</v>
       </c>
       <c r="M164">
         <v>0.78621</v>
@@ -10266,19 +10269,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q164" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R164" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S164" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T164" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U164" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="165" spans="1:21">
@@ -10295,7 +10298,7 @@
         <v>57</v>
       </c>
       <c r="E165" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F165">
         <v>0.259</v>
@@ -10310,7 +10313,7 @@
         <v>1.2575</v>
       </c>
       <c r="L165">
-        <v>0.478</v>
+        <v>0.43</v>
       </c>
       <c r="M165">
         <v>0.78621</v>
@@ -10325,19 +10328,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q165" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R165" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S165" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T165" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U165" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="166" spans="1:21">
@@ -10354,16 +10357,16 @@
         <v>57</v>
       </c>
       <c r="E166" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F166">
         <v>820</v>
       </c>
       <c r="G166">
-        <v>1637.45681428472</v>
+        <v>1661.71197044905</v>
       </c>
       <c r="H166">
-        <v>10784.4969142445</v>
+        <v>12219.8926962372</v>
       </c>
       <c r="I166">
         <v>8890</v>
@@ -10375,7 +10378,7 @@
         <v>88.135593220339</v>
       </c>
       <c r="L166">
-        <v>950</v>
+        <v>910</v>
       </c>
       <c r="M166">
         <v>2223</v>
@@ -10390,19 +10393,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q166" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R166" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S166" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T166" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U166" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="167" spans="1:21">
@@ -10419,16 +10422,16 @@
         <v>57</v>
       </c>
       <c r="E167" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F167">
         <v>820</v>
       </c>
       <c r="G167">
-        <v>1637.45681428472</v>
+        <v>1661.71197044905</v>
       </c>
       <c r="H167">
-        <v>10784.4969142445</v>
+        <v>12219.8926962372</v>
       </c>
       <c r="I167">
         <v>8890</v>
@@ -10440,7 +10443,7 @@
         <v>88.135593220339</v>
       </c>
       <c r="L167">
-        <v>950</v>
+        <v>910</v>
       </c>
       <c r="M167">
         <v>2223</v>
@@ -10455,19 +10458,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q167" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R167" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S167" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T167" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U167" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="168" spans="1:21">
@@ -10484,16 +10487,16 @@
         <v>57</v>
       </c>
       <c r="E168" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F168">
         <v>820</v>
       </c>
       <c r="G168">
-        <v>1637.45681428472</v>
+        <v>1661.71197044905</v>
       </c>
       <c r="H168">
-        <v>10784.4969142445</v>
+        <v>12219.8926962372</v>
       </c>
       <c r="I168">
         <v>8890</v>
@@ -10505,7 +10508,7 @@
         <v>88.135593220339</v>
       </c>
       <c r="L168">
-        <v>950</v>
+        <v>910</v>
       </c>
       <c r="M168">
         <v>2223</v>
@@ -10520,19 +10523,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q168" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R168" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S168" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T168" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U168" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="169" spans="1:21">
@@ -10549,16 +10552,16 @@
         <v>57</v>
       </c>
       <c r="E169" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F169">
         <v>820</v>
       </c>
       <c r="G169">
-        <v>1637.45681428472</v>
+        <v>1661.71197044905</v>
       </c>
       <c r="H169">
-        <v>10784.4969142445</v>
+        <v>12219.8926962372</v>
       </c>
       <c r="I169">
         <v>8890</v>
@@ -10570,7 +10573,7 @@
         <v>88.135593220339</v>
       </c>
       <c r="L169">
-        <v>950</v>
+        <v>910</v>
       </c>
       <c r="M169">
         <v>2223</v>
@@ -10585,19 +10588,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q169" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R169" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S169" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T169" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U169" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="170" spans="1:21">
@@ -10614,7 +10617,7 @@
         <v>57</v>
       </c>
       <c r="E170" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F170">
         <v>103</v>
@@ -10644,16 +10647,16 @@
         <v>5542493.4</v>
       </c>
       <c r="Q170" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R170" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S170" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T170" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="171" spans="1:21">
@@ -10670,7 +10673,7 @@
         <v>57</v>
       </c>
       <c r="E171" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F171">
         <v>0.13196</v>
@@ -10700,19 +10703,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q171" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R171" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S171" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T171" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U171" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="172" spans="1:21">
@@ -10729,7 +10732,7 @@
         <v>57</v>
       </c>
       <c r="E172" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F172">
         <v>0.13196</v>
@@ -10759,19 +10762,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q172" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R172" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S172" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T172" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U172" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="173" spans="1:21">
@@ -10788,7 +10791,7 @@
         <v>57</v>
       </c>
       <c r="E173" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F173">
         <v>0.797</v>
@@ -10803,7 +10806,7 @@
         <v>1.481</v>
       </c>
       <c r="L173">
-        <v>0.3905</v>
+        <v>0.444</v>
       </c>
       <c r="M173">
         <v>1.2541</v>
@@ -10818,19 +10821,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q173" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R173" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S173" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T173" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U173" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="174" spans="1:21">
@@ -10847,7 +10850,7 @@
         <v>57</v>
       </c>
       <c r="E174" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F174">
         <v>0.797</v>
@@ -10862,7 +10865,7 @@
         <v>1.481</v>
       </c>
       <c r="L174">
-        <v>0.3905</v>
+        <v>0.444</v>
       </c>
       <c r="M174">
         <v>1.2541</v>
@@ -10877,19 +10880,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q174" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R174" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S174" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T174" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U174" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="175" spans="1:21">
@@ -10906,7 +10909,7 @@
         <v>57</v>
       </c>
       <c r="E175" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F175">
         <v>5.52</v>
@@ -10936,16 +10939,16 @@
         <v>5542493.4</v>
       </c>
       <c r="Q175" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R175" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S175" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T175" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="176" spans="1:21">
@@ -10959,7 +10962,7 @@
         <v>57</v>
       </c>
       <c r="E176" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F176">
         <v>1.205</v>
@@ -10974,7 +10977,7 @@
         <v>2.7705</v>
       </c>
       <c r="L176">
-        <v>0.72</v>
+        <v>0.735</v>
       </c>
       <c r="M176">
         <v>1.93037</v>
@@ -10989,19 +10992,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q176" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R176" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S176" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T176" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U176" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="177" spans="1:21">
@@ -11015,7 +11018,7 @@
         <v>57</v>
       </c>
       <c r="E177" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F177">
         <v>1.205</v>
@@ -11030,7 +11033,7 @@
         <v>2.7705</v>
       </c>
       <c r="L177">
-        <v>0.72</v>
+        <v>0.735</v>
       </c>
       <c r="M177">
         <v>1.93037</v>
@@ -11045,19 +11048,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q177" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R177" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S177" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T177" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U177" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="178" spans="1:21">
@@ -11071,7 +11074,7 @@
         <v>57</v>
       </c>
       <c r="E178" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F178">
         <v>1.5</v>
@@ -11086,7 +11089,7 @@
         <v>3.117</v>
       </c>
       <c r="L178">
-        <v>1.035</v>
+        <v>1.08</v>
       </c>
       <c r="M178">
         <v>2.2652</v>
@@ -11101,19 +11104,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q178" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R178" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S178" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T178" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U178" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="179" spans="1:21">
@@ -11127,7 +11130,7 @@
         <v>57</v>
       </c>
       <c r="E179" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F179">
         <v>1.5</v>
@@ -11142,7 +11145,7 @@
         <v>3.117</v>
       </c>
       <c r="L179">
-        <v>1.035</v>
+        <v>1.08</v>
       </c>
       <c r="M179">
         <v>2.2652</v>
@@ -11157,19 +11160,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q179" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R179" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S179" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T179" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U179" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="180" spans="1:21">
@@ -11183,7 +11186,7 @@
         <v>57</v>
       </c>
       <c r="E180" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F180">
         <v>0.353</v>
@@ -11198,7 +11201,7 @@
         <v>1.321</v>
       </c>
       <c r="L180">
-        <v>0.5685</v>
+        <v>0.476</v>
       </c>
       <c r="M180">
         <v>0.86087</v>
@@ -11213,19 +11216,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q180" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R180" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S180" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T180" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U180" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="181" spans="1:21">
@@ -11239,7 +11242,7 @@
         <v>57</v>
       </c>
       <c r="E181" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F181">
         <v>0.353</v>
@@ -11254,7 +11257,7 @@
         <v>1.321</v>
       </c>
       <c r="L181">
-        <v>0.5685</v>
+        <v>0.476</v>
       </c>
       <c r="M181">
         <v>0.86087</v>
@@ -11269,19 +11272,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q181" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R181" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S181" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T181" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U181" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="182" spans="1:21">
@@ -11298,7 +11301,7 @@
         <v>58</v>
       </c>
       <c r="E182" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F182">
         <v>0.455</v>
@@ -11328,16 +11331,16 @@
         <v>5542493.4</v>
       </c>
       <c r="Q182" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R182" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S182" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T182" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="183" spans="1:21">
@@ -11354,13 +11357,13 @@
         <v>58</v>
       </c>
       <c r="E183" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F183">
         <v>6</v>
       </c>
       <c r="G183">
-        <v>26.572436063338</v>
+        <v>26.5708754354281</v>
       </c>
       <c r="H183">
         <v>220</v>
@@ -11369,7 +11372,7 @@
         <v>116.5</v>
       </c>
       <c r="L183">
-        <v>27.75</v>
+        <v>10</v>
       </c>
       <c r="M183">
         <v>45.51</v>
@@ -11384,19 +11387,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q183" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R183" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S183" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T183" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U183" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="184" spans="1:21">
@@ -11413,13 +11416,13 @@
         <v>58</v>
       </c>
       <c r="E184" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F184">
         <v>0.62</v>
       </c>
       <c r="G184">
-        <v>0.904950825862982</v>
+        <v>0.90455743794246</v>
       </c>
       <c r="H184">
         <v>2.25</v>
@@ -11428,7 +11431,7 @@
         <v>2.209</v>
       </c>
       <c r="L184">
-        <v>1.65</v>
+        <v>1.12</v>
       </c>
       <c r="M184">
         <v>1.9518</v>
@@ -11443,19 +11446,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q184" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R184" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S184" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T184" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U184" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="185" spans="1:21">
@@ -11472,7 +11475,7 @@
         <v>58</v>
       </c>
       <c r="E185" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F185">
         <v>0.242</v>
@@ -11487,7 +11490,7 @@
         <v>1.2575</v>
       </c>
       <c r="L185">
-        <v>0.413</v>
+        <v>0.303</v>
       </c>
       <c r="M185">
         <v>0.78621</v>
@@ -11502,19 +11505,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q185" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R185" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S185" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T185" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U185" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="186" spans="1:21">
@@ -11531,7 +11534,7 @@
         <v>58</v>
       </c>
       <c r="E186" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F186">
         <v>0.242</v>
@@ -11546,7 +11549,7 @@
         <v>1.2575</v>
       </c>
       <c r="L186">
-        <v>0.413</v>
+        <v>0.303</v>
       </c>
       <c r="M186">
         <v>0.78621</v>
@@ -11561,19 +11564,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q186" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R186" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S186" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T186" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U186" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="187" spans="1:21">
@@ -11590,16 +11593,16 @@
         <v>58</v>
       </c>
       <c r="E187" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F187">
         <v>600</v>
       </c>
       <c r="G187">
-        <v>1456.25342445421</v>
+        <v>1480.47807214396</v>
       </c>
       <c r="H187">
-        <v>10784.4969142445</v>
+        <v>12219.8926962372</v>
       </c>
       <c r="I187">
         <v>6684.55</v>
@@ -11611,10 +11614,10 @@
         <v>88.135593220339</v>
       </c>
       <c r="L187">
-        <v>951</v>
+        <v>910</v>
       </c>
       <c r="M187">
-        <v>1647.66</v>
+        <v>1647.472</v>
       </c>
       <c r="N187">
         <v>4800</v>
@@ -11626,19 +11629,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q187" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R187" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S187" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T187" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U187" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="188" spans="1:21">
@@ -11655,16 +11658,16 @@
         <v>58</v>
       </c>
       <c r="E188" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F188">
         <v>600</v>
       </c>
       <c r="G188">
-        <v>1456.25342445421</v>
+        <v>1480.47807214396</v>
       </c>
       <c r="H188">
-        <v>10784.4969142445</v>
+        <v>12219.8926962372</v>
       </c>
       <c r="I188">
         <v>6684.55</v>
@@ -11676,10 +11679,10 @@
         <v>88.135593220339</v>
       </c>
       <c r="L188">
-        <v>951</v>
+        <v>910</v>
       </c>
       <c r="M188">
-        <v>1647.66</v>
+        <v>1647.472</v>
       </c>
       <c r="N188">
         <v>4800</v>
@@ -11691,19 +11694,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q188" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R188" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S188" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T188" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U188" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="189" spans="1:21">
@@ -11720,16 +11723,16 @@
         <v>58</v>
       </c>
       <c r="E189" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F189">
         <v>600</v>
       </c>
       <c r="G189">
-        <v>1456.25342445421</v>
+        <v>1480.47807214396</v>
       </c>
       <c r="H189">
-        <v>10784.4969142445</v>
+        <v>12219.8926962372</v>
       </c>
       <c r="I189">
         <v>6684.55</v>
@@ -11741,10 +11744,10 @@
         <v>88.135593220339</v>
       </c>
       <c r="L189">
-        <v>951</v>
+        <v>910</v>
       </c>
       <c r="M189">
-        <v>1647.66</v>
+        <v>1647.472</v>
       </c>
       <c r="N189">
         <v>4800</v>
@@ -11756,19 +11759,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q189" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R189" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S189" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T189" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U189" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="190" spans="1:21">
@@ -11785,16 +11788,16 @@
         <v>58</v>
       </c>
       <c r="E190" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F190">
         <v>600</v>
       </c>
       <c r="G190">
-        <v>1456.25342445421</v>
+        <v>1480.47807214396</v>
       </c>
       <c r="H190">
-        <v>10784.4969142445</v>
+        <v>12219.8926962372</v>
       </c>
       <c r="I190">
         <v>6684.55</v>
@@ -11806,10 +11809,10 @@
         <v>88.135593220339</v>
       </c>
       <c r="L190">
-        <v>951</v>
+        <v>910</v>
       </c>
       <c r="M190">
-        <v>1647.66</v>
+        <v>1647.472</v>
       </c>
       <c r="N190">
         <v>4800</v>
@@ -11821,19 +11824,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q190" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R190" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S190" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T190" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U190" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="191" spans="1:21">
@@ -11850,7 +11853,7 @@
         <v>58</v>
       </c>
       <c r="E191" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F191">
         <v>103</v>
@@ -11880,16 +11883,16 @@
         <v>5542493.4</v>
       </c>
       <c r="Q191" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R191" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S191" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T191" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="192" spans="1:21">
@@ -11906,7 +11909,7 @@
         <v>58</v>
       </c>
       <c r="E192" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F192">
         <v>0.10152</v>
@@ -11921,7 +11924,7 @@
         <v>1.28095</v>
       </c>
       <c r="L192">
-        <v>0.06850000000000001</v>
+        <v>0.07451000000000001</v>
       </c>
       <c r="M192">
         <v>0.34614</v>
@@ -11936,19 +11939,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q192" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R192" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S192" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T192" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U192" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="193" spans="1:21">
@@ -11965,7 +11968,7 @@
         <v>58</v>
       </c>
       <c r="E193" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F193">
         <v>0.10152</v>
@@ -11980,7 +11983,7 @@
         <v>1.28095</v>
       </c>
       <c r="L193">
-        <v>0.06850000000000001</v>
+        <v>0.07451000000000001</v>
       </c>
       <c r="M193">
         <v>0.34614</v>
@@ -11995,19 +11998,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q193" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R193" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S193" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T193" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U193" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="194" spans="1:21">
@@ -12024,7 +12027,7 @@
         <v>58</v>
       </c>
       <c r="E194" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F194">
         <v>0.839</v>
@@ -12039,7 +12042,7 @@
         <v>1.501</v>
       </c>
       <c r="L194">
-        <v>0.438</v>
+        <v>0.483</v>
       </c>
       <c r="M194">
         <v>1.3294</v>
@@ -12054,19 +12057,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q194" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R194" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S194" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T194" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U194" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="195" spans="1:21">
@@ -12083,7 +12086,7 @@
         <v>58</v>
       </c>
       <c r="E195" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F195">
         <v>0.839</v>
@@ -12098,7 +12101,7 @@
         <v>1.501</v>
       </c>
       <c r="L195">
-        <v>0.438</v>
+        <v>0.483</v>
       </c>
       <c r="M195">
         <v>1.3294</v>
@@ -12113,19 +12116,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q195" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R195" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S195" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T195" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U195" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="196" spans="1:21">
@@ -12142,7 +12145,7 @@
         <v>58</v>
       </c>
       <c r="E196" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F196">
         <v>5.97</v>
@@ -12172,16 +12175,16 @@
         <v>5542493.4</v>
       </c>
       <c r="Q196" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R196" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S196" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T196" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="197" spans="1:21">
@@ -12195,7 +12198,7 @@
         <v>58</v>
       </c>
       <c r="E197" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F197">
         <v>1.233</v>
@@ -12210,7 +12213,7 @@
         <v>2.7705</v>
       </c>
       <c r="L197">
-        <v>0.672</v>
+        <v>0.737</v>
       </c>
       <c r="M197">
         <v>1.93037</v>
@@ -12225,19 +12228,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q197" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R197" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S197" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T197" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U197" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="198" spans="1:21">
@@ -12251,7 +12254,7 @@
         <v>58</v>
       </c>
       <c r="E198" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F198">
         <v>1.233</v>
@@ -12266,7 +12269,7 @@
         <v>2.7705</v>
       </c>
       <c r="L198">
-        <v>0.672</v>
+        <v>0.737</v>
       </c>
       <c r="M198">
         <v>1.93037</v>
@@ -12281,19 +12284,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q198" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R198" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S198" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T198" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U198" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="199" spans="1:21">
@@ -12307,7 +12310,7 @@
         <v>58</v>
       </c>
       <c r="E199" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F199">
         <v>1.52</v>
@@ -12322,7 +12325,7 @@
         <v>3.117</v>
       </c>
       <c r="L199">
-        <v>1.055</v>
+        <v>1.08</v>
       </c>
       <c r="M199">
         <v>2.2652</v>
@@ -12337,19 +12340,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q199" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R199" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S199" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T199" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U199" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="200" spans="1:21">
@@ -12363,7 +12366,7 @@
         <v>58</v>
       </c>
       <c r="E200" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F200">
         <v>1.52</v>
@@ -12378,7 +12381,7 @@
         <v>3.117</v>
       </c>
       <c r="L200">
-        <v>1.055</v>
+        <v>1.08</v>
       </c>
       <c r="M200">
         <v>2.2652</v>
@@ -12393,19 +12396,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R200" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S200" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T200" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U200" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="201" spans="1:21">
@@ -12419,7 +12422,7 @@
         <v>58</v>
       </c>
       <c r="E201" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F201">
         <v>0.312</v>
@@ -12434,7 +12437,7 @@
         <v>1.321</v>
       </c>
       <c r="L201">
-        <v>0.4645</v>
+        <v>0.328</v>
       </c>
       <c r="M201">
         <v>0.86087</v>
@@ -12449,19 +12452,19 @@
         <v>5542493.4</v>
       </c>
       <c r="Q201" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R201" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S201" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T201" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U201" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="202" spans="1:21">
@@ -12475,7 +12478,7 @@
         <v>58</v>
       </c>
       <c r="E202" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F202">
         <v>0.312</v>
@@ -12490,7 +12493,7 @@
         <v>1.321</v>
       </c>
       <c r="L202">
-        <v>0.4645</v>
+        <v>0.328</v>
       </c>
       <c r="M202">
         <v>0.86087</v>
@@ -12505,19 +12508,1196 @@
         <v>5542493.4</v>
       </c>
       <c r="Q202" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R202" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S202" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T202" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U202" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21">
+      <c r="A203" t="s">
+        <v>21</v>
+      </c>
+      <c r="B203" t="s">
+        <v>41</v>
+      </c>
+      <c r="C203" t="s">
+        <v>43</v>
+      </c>
+      <c r="D203" t="s">
+        <v>59</v>
+      </c>
+      <c r="E203" t="s">
+        <v>60</v>
+      </c>
+      <c r="F203">
+        <v>0.47</v>
+      </c>
+      <c r="G203">
+        <v>0.455</v>
+      </c>
+      <c r="H203">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="I203">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="L203">
+        <v>0.47</v>
+      </c>
+      <c r="M203">
+        <v>0.5463</v>
+      </c>
+      <c r="N203">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="O203">
+        <v>1863908.8</v>
+      </c>
+      <c r="P203">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>61</v>
+      </c>
+      <c r="R203" t="s">
+        <v>62</v>
+      </c>
+      <c r="S203" t="s">
+        <v>63</v>
+      </c>
+      <c r="T203" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21">
+      <c r="A204" t="s">
+        <v>21</v>
+      </c>
+      <c r="B204" t="s">
+        <v>22</v>
+      </c>
+      <c r="C204" t="s">
+        <v>44</v>
+      </c>
+      <c r="D204" t="s">
+        <v>59</v>
+      </c>
+      <c r="E204" t="s">
+        <v>60</v>
+      </c>
+      <c r="F204">
+        <v>4.15</v>
+      </c>
+      <c r="G204">
+        <v>13.6786475017943</v>
+      </c>
+      <c r="H204">
+        <v>80</v>
+      </c>
+      <c r="I204">
+        <v>52.2</v>
+      </c>
+      <c r="L204">
+        <v>7.75</v>
+      </c>
+      <c r="M204">
+        <v>31.07</v>
+      </c>
+      <c r="N204">
+        <v>45.18</v>
+      </c>
+      <c r="O204">
+        <v>1863908.8</v>
+      </c>
+      <c r="P204">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>61</v>
+      </c>
+      <c r="R204" t="s">
+        <v>62</v>
+      </c>
+      <c r="S204" t="s">
+        <v>63</v>
+      </c>
+      <c r="T204" t="s">
+        <v>64</v>
+      </c>
+      <c r="U204" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21">
+      <c r="A205" t="s">
+        <v>21</v>
+      </c>
+      <c r="B205" t="s">
+        <v>24</v>
+      </c>
+      <c r="C205" t="s">
+        <v>45</v>
+      </c>
+      <c r="D205" t="s">
+        <v>59</v>
+      </c>
+      <c r="E205" t="s">
+        <v>60</v>
+      </c>
+      <c r="F205">
+        <v>0.198</v>
+      </c>
+      <c r="G205">
+        <v>0.349745762711864</v>
+      </c>
+      <c r="H205">
+        <v>1.42</v>
+      </c>
+      <c r="I205">
+        <v>1.221</v>
+      </c>
+      <c r="L205">
+        <v>0.242</v>
+      </c>
+      <c r="M205">
+        <v>0.6569199999999999</v>
+      </c>
+      <c r="N205">
+        <v>1.0435</v>
+      </c>
+      <c r="O205">
+        <v>1863908.8</v>
+      </c>
+      <c r="P205">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>61</v>
+      </c>
+      <c r="R205" t="s">
+        <v>62</v>
+      </c>
+      <c r="S205" t="s">
+        <v>63</v>
+      </c>
+      <c r="T205" t="s">
+        <v>64</v>
+      </c>
+      <c r="U205" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21">
+      <c r="A206" t="s">
+        <v>21</v>
+      </c>
+      <c r="B206" t="s">
+        <v>25</v>
+      </c>
+      <c r="C206" t="s">
+        <v>45</v>
+      </c>
+      <c r="D206" t="s">
+        <v>59</v>
+      </c>
+      <c r="E206" t="s">
+        <v>60</v>
+      </c>
+      <c r="F206">
+        <v>0.198</v>
+      </c>
+      <c r="G206">
+        <v>0.349745762711864</v>
+      </c>
+      <c r="H206">
+        <v>1.42</v>
+      </c>
+      <c r="I206">
+        <v>1.221</v>
+      </c>
+      <c r="L206">
+        <v>0.242</v>
+      </c>
+      <c r="M206">
+        <v>0.6569199999999999</v>
+      </c>
+      <c r="N206">
+        <v>1.0435</v>
+      </c>
+      <c r="O206">
+        <v>1863908.8</v>
+      </c>
+      <c r="P206">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>61</v>
+      </c>
+      <c r="R206" t="s">
+        <v>62</v>
+      </c>
+      <c r="S206" t="s">
+        <v>63</v>
+      </c>
+      <c r="T206" t="s">
+        <v>64</v>
+      </c>
+      <c r="U206" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21">
+      <c r="A207" t="s">
+        <v>21</v>
+      </c>
+      <c r="B207" t="s">
+        <v>26</v>
+      </c>
+      <c r="C207" t="s">
+        <v>46</v>
+      </c>
+      <c r="D207" t="s">
+        <v>59</v>
+      </c>
+      <c r="E207" t="s">
+        <v>60</v>
+      </c>
+      <c r="F207">
+        <v>632.8</v>
+      </c>
+      <c r="G207">
+        <v>1406.01806183142</v>
+      </c>
+      <c r="H207">
+        <v>12219.8926962372</v>
+      </c>
+      <c r="I207">
+        <v>6819.6</v>
+      </c>
+      <c r="J207">
+        <v>58.6206896551724</v>
+      </c>
+      <c r="K207">
+        <v>87.93103448275861</v>
+      </c>
+      <c r="L207">
+        <v>1046</v>
+      </c>
+      <c r="M207">
+        <v>1745.664</v>
+      </c>
+      <c r="N207">
+        <v>4646</v>
+      </c>
+      <c r="O207">
+        <v>1863908.8</v>
+      </c>
+      <c r="P207">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>61</v>
+      </c>
+      <c r="R207" t="s">
+        <v>62</v>
+      </c>
+      <c r="S207" t="s">
+        <v>63</v>
+      </c>
+      <c r="T207" t="s">
+        <v>64</v>
+      </c>
+      <c r="U207" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21">
+      <c r="A208" t="s">
+        <v>21</v>
+      </c>
+      <c r="B208" t="s">
+        <v>27</v>
+      </c>
+      <c r="C208" t="s">
+        <v>46</v>
+      </c>
+      <c r="D208" t="s">
+        <v>59</v>
+      </c>
+      <c r="E208" t="s">
+        <v>60</v>
+      </c>
+      <c r="F208">
+        <v>632.8</v>
+      </c>
+      <c r="G208">
+        <v>1406.01806183142</v>
+      </c>
+      <c r="H208">
+        <v>12219.8926962372</v>
+      </c>
+      <c r="I208">
+        <v>6819.6</v>
+      </c>
+      <c r="J208">
+        <v>58.6206896551724</v>
+      </c>
+      <c r="K208">
+        <v>87.93103448275861</v>
+      </c>
+      <c r="L208">
+        <v>1046</v>
+      </c>
+      <c r="M208">
+        <v>1745.664</v>
+      </c>
+      <c r="N208">
+        <v>4646</v>
+      </c>
+      <c r="O208">
+        <v>1863908.8</v>
+      </c>
+      <c r="P208">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>61</v>
+      </c>
+      <c r="R208" t="s">
+        <v>62</v>
+      </c>
+      <c r="S208" t="s">
+        <v>63</v>
+      </c>
+      <c r="T208" t="s">
+        <v>64</v>
+      </c>
+      <c r="U208" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21">
+      <c r="A209" t="s">
+        <v>21</v>
+      </c>
+      <c r="B209" t="s">
+        <v>28</v>
+      </c>
+      <c r="C209" t="s">
+        <v>46</v>
+      </c>
+      <c r="D209" t="s">
+        <v>59</v>
+      </c>
+      <c r="E209" t="s">
+        <v>60</v>
+      </c>
+      <c r="F209">
+        <v>632.8</v>
+      </c>
+      <c r="G209">
+        <v>1406.01806183142</v>
+      </c>
+      <c r="H209">
+        <v>12219.8926962372</v>
+      </c>
+      <c r="I209">
+        <v>6819.6</v>
+      </c>
+      <c r="J209">
+        <v>58.6206896551724</v>
+      </c>
+      <c r="K209">
+        <v>87.93103448275861</v>
+      </c>
+      <c r="L209">
+        <v>1046</v>
+      </c>
+      <c r="M209">
+        <v>1745.664</v>
+      </c>
+      <c r="N209">
+        <v>4646</v>
+      </c>
+      <c r="O209">
+        <v>1863908.8</v>
+      </c>
+      <c r="P209">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>61</v>
+      </c>
+      <c r="R209" t="s">
+        <v>62</v>
+      </c>
+      <c r="S209" t="s">
+        <v>63</v>
+      </c>
+      <c r="T209" t="s">
+        <v>64</v>
+      </c>
+      <c r="U209" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21">
+      <c r="A210" t="s">
+        <v>21</v>
+      </c>
+      <c r="B210" t="s">
+        <v>29</v>
+      </c>
+      <c r="C210" t="s">
+        <v>46</v>
+      </c>
+      <c r="D210" t="s">
+        <v>59</v>
+      </c>
+      <c r="E210" t="s">
+        <v>60</v>
+      </c>
+      <c r="F210">
+        <v>632.8</v>
+      </c>
+      <c r="G210">
+        <v>1406.01806183142</v>
+      </c>
+      <c r="H210">
+        <v>12219.8926962372</v>
+      </c>
+      <c r="I210">
+        <v>6819.6</v>
+      </c>
+      <c r="J210">
+        <v>58.6206896551724</v>
+      </c>
+      <c r="K210">
+        <v>87.93103448275861</v>
+      </c>
+      <c r="L210">
+        <v>1046</v>
+      </c>
+      <c r="M210">
+        <v>1745.664</v>
+      </c>
+      <c r="N210">
+        <v>4646</v>
+      </c>
+      <c r="O210">
+        <v>1863908.8</v>
+      </c>
+      <c r="P210">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>61</v>
+      </c>
+      <c r="R210" t="s">
+        <v>62</v>
+      </c>
+      <c r="S210" t="s">
+        <v>63</v>
+      </c>
+      <c r="T210" t="s">
+        <v>64</v>
+      </c>
+      <c r="U210" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21">
+      <c r="A211" t="s">
+        <v>21</v>
+      </c>
+      <c r="B211" t="s">
+        <v>40</v>
+      </c>
+      <c r="C211" t="s">
+        <v>47</v>
+      </c>
+      <c r="D211" t="s">
+        <v>59</v>
+      </c>
+      <c r="E211" t="s">
+        <v>60</v>
+      </c>
+      <c r="F211">
+        <v>108.24</v>
+      </c>
+      <c r="G211">
+        <v>107.906</v>
+      </c>
+      <c r="H211">
+        <v>115.29</v>
+      </c>
+      <c r="I211">
+        <v>115.29</v>
+      </c>
+      <c r="L211">
+        <v>108.24</v>
+      </c>
+      <c r="M211">
+        <v>114.4885</v>
+      </c>
+      <c r="N211">
+        <v>115.29</v>
+      </c>
+      <c r="O211">
+        <v>1863908.8</v>
+      </c>
+      <c r="P211">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>61</v>
+      </c>
+      <c r="R211" t="s">
+        <v>62</v>
+      </c>
+      <c r="S211" t="s">
+        <v>63</v>
+      </c>
+      <c r="T211" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21">
+      <c r="A212" t="s">
+        <v>21</v>
+      </c>
+      <c r="B212" t="s">
+        <v>30</v>
+      </c>
+      <c r="C212" t="s">
+        <v>47</v>
+      </c>
+      <c r="D212" t="s">
+        <v>59</v>
+      </c>
+      <c r="E212" t="s">
+        <v>60</v>
+      </c>
+      <c r="F212">
+        <v>0.0789</v>
+      </c>
+      <c r="G212">
+        <v>0.220256466523276</v>
+      </c>
+      <c r="H212">
+        <v>1.48479713030671</v>
+      </c>
+      <c r="I212">
+        <v>1.26424</v>
+      </c>
+      <c r="L212">
+        <v>0.03919</v>
+      </c>
+      <c r="M212">
+        <v>0.32167</v>
+      </c>
+      <c r="N212">
+        <v>0.8465</v>
+      </c>
+      <c r="O212">
+        <v>1863908.8</v>
+      </c>
+      <c r="P212">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>61</v>
+      </c>
+      <c r="R212" t="s">
+        <v>62</v>
+      </c>
+      <c r="S212" t="s">
+        <v>63</v>
+      </c>
+      <c r="T212" t="s">
+        <v>64</v>
+      </c>
+      <c r="U212" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21">
+      <c r="A213" t="s">
+        <v>21</v>
+      </c>
+      <c r="B213" t="s">
+        <v>31</v>
+      </c>
+      <c r="C213" t="s">
+        <v>43</v>
+      </c>
+      <c r="D213" t="s">
+        <v>59</v>
+      </c>
+      <c r="E213" t="s">
+        <v>60</v>
+      </c>
+      <c r="F213">
+        <v>0.0789</v>
+      </c>
+      <c r="G213">
+        <v>0.220256466523276</v>
+      </c>
+      <c r="H213">
+        <v>1.48479713030671</v>
+      </c>
+      <c r="I213">
+        <v>1.26424</v>
+      </c>
+      <c r="L213">
+        <v>0.03919</v>
+      </c>
+      <c r="M213">
+        <v>0.32167</v>
+      </c>
+      <c r="N213">
+        <v>0.8465</v>
+      </c>
+      <c r="O213">
+        <v>1863908.8</v>
+      </c>
+      <c r="P213">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>61</v>
+      </c>
+      <c r="R213" t="s">
+        <v>62</v>
+      </c>
+      <c r="S213" t="s">
+        <v>63</v>
+      </c>
+      <c r="T213" t="s">
+        <v>64</v>
+      </c>
+      <c r="U213" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21">
+      <c r="A214" t="s">
+        <v>21</v>
+      </c>
+      <c r="B214" t="s">
+        <v>32</v>
+      </c>
+      <c r="C214" t="s">
+        <v>44</v>
+      </c>
+      <c r="D214" t="s">
+        <v>59</v>
+      </c>
+      <c r="E214" t="s">
+        <v>60</v>
+      </c>
+      <c r="F214">
+        <v>0.762</v>
+      </c>
+      <c r="G214">
+        <v>0.79464406779661</v>
+      </c>
+      <c r="H214">
+        <v>1.68</v>
+      </c>
+      <c r="I214">
+        <v>1.49</v>
+      </c>
+      <c r="L214">
+        <v>0.477</v>
+      </c>
+      <c r="M214">
+        <v>1.2147</v>
+      </c>
+      <c r="N214">
+        <v>1.4046</v>
+      </c>
+      <c r="O214">
+        <v>1863908.8</v>
+      </c>
+      <c r="P214">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>61</v>
+      </c>
+      <c r="R214" t="s">
+        <v>62</v>
+      </c>
+      <c r="S214" t="s">
+        <v>63</v>
+      </c>
+      <c r="T214" t="s">
+        <v>64</v>
+      </c>
+      <c r="U214" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21">
+      <c r="A215" t="s">
+        <v>21</v>
+      </c>
+      <c r="B215" t="s">
+        <v>33</v>
+      </c>
+      <c r="C215" t="s">
+        <v>44</v>
+      </c>
+      <c r="D215" t="s">
+        <v>59</v>
+      </c>
+      <c r="E215" t="s">
+        <v>60</v>
+      </c>
+      <c r="F215">
+        <v>0.762</v>
+      </c>
+      <c r="G215">
+        <v>0.79464406779661</v>
+      </c>
+      <c r="H215">
+        <v>1.68</v>
+      </c>
+      <c r="I215">
+        <v>1.49</v>
+      </c>
+      <c r="L215">
+        <v>0.477</v>
+      </c>
+      <c r="M215">
+        <v>1.2147</v>
+      </c>
+      <c r="N215">
+        <v>1.4046</v>
+      </c>
+      <c r="O215">
+        <v>1863908.8</v>
+      </c>
+      <c r="P215">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>61</v>
+      </c>
+      <c r="R215" t="s">
+        <v>62</v>
+      </c>
+      <c r="S215" t="s">
+        <v>63</v>
+      </c>
+      <c r="T215" t="s">
+        <v>64</v>
+      </c>
+      <c r="U215" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21">
+      <c r="A216" t="s">
+        <v>21</v>
+      </c>
+      <c r="B216" t="s">
+        <v>42</v>
+      </c>
+      <c r="C216" t="s">
+        <v>43</v>
+      </c>
+      <c r="D216" t="s">
+        <v>59</v>
+      </c>
+      <c r="E216" t="s">
+        <v>60</v>
+      </c>
+      <c r="F216">
+        <v>5.52</v>
+      </c>
+      <c r="G216">
+        <v>5.8768</v>
+      </c>
+      <c r="H216">
+        <v>7.015</v>
+      </c>
+      <c r="I216">
+        <v>7.015</v>
+      </c>
+      <c r="L216">
+        <v>5.52</v>
+      </c>
+      <c r="M216">
+        <v>6.68775</v>
+      </c>
+      <c r="N216">
+        <v>7.015</v>
+      </c>
+      <c r="O216">
+        <v>1863908.8</v>
+      </c>
+      <c r="P216">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>61</v>
+      </c>
+      <c r="R216" t="s">
+        <v>62</v>
+      </c>
+      <c r="S216" t="s">
+        <v>63</v>
+      </c>
+      <c r="T216" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21">
+      <c r="A217" t="s">
+        <v>21</v>
+      </c>
+      <c r="B217" t="s">
+        <v>34</v>
+      </c>
+      <c r="D217" t="s">
+        <v>59</v>
+      </c>
+      <c r="E217" t="s">
+        <v>60</v>
+      </c>
+      <c r="F217">
+        <v>1.165</v>
+      </c>
+      <c r="G217">
+        <v>1.20936440677966</v>
+      </c>
+      <c r="H217">
+        <v>3.23</v>
+      </c>
+      <c r="I217">
+        <v>2.7705</v>
+      </c>
+      <c r="L217">
+        <v>0.699</v>
+      </c>
+      <c r="M217">
+        <v>1.69746</v>
+      </c>
+      <c r="N217">
+        <v>2.40756</v>
+      </c>
+      <c r="O217">
+        <v>1863908.8</v>
+      </c>
+      <c r="P217">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>61</v>
+      </c>
+      <c r="R217" t="s">
+        <v>62</v>
+      </c>
+      <c r="S217" t="s">
+        <v>63</v>
+      </c>
+      <c r="T217" t="s">
+        <v>64</v>
+      </c>
+      <c r="U217" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21">
+      <c r="A218" t="s">
+        <v>21</v>
+      </c>
+      <c r="B218" t="s">
+        <v>35</v>
+      </c>
+      <c r="D218" t="s">
+        <v>59</v>
+      </c>
+      <c r="E218" t="s">
+        <v>60</v>
+      </c>
+      <c r="F218">
+        <v>1.165</v>
+      </c>
+      <c r="G218">
+        <v>1.20936440677966</v>
+      </c>
+      <c r="H218">
+        <v>3.23</v>
+      </c>
+      <c r="I218">
+        <v>2.7705</v>
+      </c>
+      <c r="L218">
+        <v>0.699</v>
+      </c>
+      <c r="M218">
+        <v>1.69746</v>
+      </c>
+      <c r="N218">
+        <v>2.40756</v>
+      </c>
+      <c r="O218">
+        <v>1863908.8</v>
+      </c>
+      <c r="P218">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>61</v>
+      </c>
+      <c r="R218" t="s">
+        <v>62</v>
+      </c>
+      <c r="S218" t="s">
+        <v>63</v>
+      </c>
+      <c r="T218" t="s">
+        <v>64</v>
+      </c>
+      <c r="U218" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21">
+      <c r="A219" t="s">
+        <v>21</v>
+      </c>
+      <c r="B219" t="s">
+        <v>36</v>
+      </c>
+      <c r="D219" t="s">
+        <v>59</v>
+      </c>
+      <c r="E219" t="s">
+        <v>60</v>
+      </c>
+      <c r="F219">
+        <v>1.42</v>
+      </c>
+      <c r="G219">
+        <v>1.54084745762712</v>
+      </c>
+      <c r="H219">
+        <v>3.39</v>
+      </c>
+      <c r="I219">
+        <v>3.117</v>
+      </c>
+      <c r="L219">
+        <v>1.07</v>
+      </c>
+      <c r="M219">
+        <v>2.0394</v>
+      </c>
+      <c r="N219">
+        <v>2.569</v>
+      </c>
+      <c r="O219">
+        <v>1863908.8</v>
+      </c>
+      <c r="P219">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>61</v>
+      </c>
+      <c r="R219" t="s">
+        <v>62</v>
+      </c>
+      <c r="S219" t="s">
+        <v>63</v>
+      </c>
+      <c r="T219" t="s">
+        <v>64</v>
+      </c>
+      <c r="U219" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21">
+      <c r="A220" t="s">
+        <v>21</v>
+      </c>
+      <c r="B220" t="s">
+        <v>37</v>
+      </c>
+      <c r="D220" t="s">
+        <v>59</v>
+      </c>
+      <c r="E220" t="s">
+        <v>60</v>
+      </c>
+      <c r="F220">
+        <v>1.42</v>
+      </c>
+      <c r="G220">
+        <v>1.54084745762712</v>
+      </c>
+      <c r="H220">
+        <v>3.39</v>
+      </c>
+      <c r="I220">
+        <v>3.117</v>
+      </c>
+      <c r="L220">
+        <v>1.07</v>
+      </c>
+      <c r="M220">
+        <v>2.0394</v>
+      </c>
+      <c r="N220">
+        <v>2.569</v>
+      </c>
+      <c r="O220">
+        <v>1863908.8</v>
+      </c>
+      <c r="P220">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>61</v>
+      </c>
+      <c r="R220" t="s">
+        <v>62</v>
+      </c>
+      <c r="S220" t="s">
+        <v>63</v>
+      </c>
+      <c r="T220" t="s">
+        <v>64</v>
+      </c>
+      <c r="U220" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="221" spans="1:21">
+      <c r="A221" t="s">
+        <v>21</v>
+      </c>
+      <c r="B221" t="s">
+        <v>38</v>
+      </c>
+      <c r="D221" t="s">
+        <v>59</v>
+      </c>
+      <c r="E221" t="s">
+        <v>60</v>
+      </c>
+      <c r="F221">
+        <v>0.252</v>
+      </c>
+      <c r="G221">
+        <v>0.428610169491525</v>
+      </c>
+      <c r="H221">
+        <v>1.48</v>
+      </c>
+      <c r="I221">
+        <v>1.31</v>
+      </c>
+      <c r="L221">
+        <v>0.305</v>
+      </c>
+      <c r="M221">
+        <v>0.76814</v>
+      </c>
+      <c r="N221">
+        <v>1.2504</v>
+      </c>
+      <c r="O221">
+        <v>1863908.8</v>
+      </c>
+      <c r="P221">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>61</v>
+      </c>
+      <c r="R221" t="s">
+        <v>62</v>
+      </c>
+      <c r="S221" t="s">
+        <v>63</v>
+      </c>
+      <c r="T221" t="s">
+        <v>64</v>
+      </c>
+      <c r="U221" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21">
+      <c r="A222" t="s">
+        <v>21</v>
+      </c>
+      <c r="B222" t="s">
+        <v>39</v>
+      </c>
+      <c r="D222" t="s">
+        <v>59</v>
+      </c>
+      <c r="E222" t="s">
+        <v>60</v>
+      </c>
+      <c r="F222">
+        <v>0.252</v>
+      </c>
+      <c r="G222">
+        <v>0.428610169491525</v>
+      </c>
+      <c r="H222">
+        <v>1.48</v>
+      </c>
+      <c r="I222">
+        <v>1.31</v>
+      </c>
+      <c r="L222">
+        <v>0.305</v>
+      </c>
+      <c r="M222">
+        <v>0.76814</v>
+      </c>
+      <c r="N222">
+        <v>1.2504</v>
+      </c>
+      <c r="O222">
+        <v>1863908.8</v>
+      </c>
+      <c r="P222">
+        <v>5542493.4</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>61</v>
+      </c>
+      <c r="R222" t="s">
+        <v>62</v>
+      </c>
+      <c r="S222" t="s">
+        <v>63</v>
+      </c>
+      <c r="T222" t="s">
+        <v>64</v>
+      </c>
+      <c r="U222" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
